--- a/coway/main/management/commands/Info.xlsx
+++ b/coway/main/management/commands/Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jomin-u/Desktop/simba5_COWAY/coway/main/management/commands/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46569CC2-E900-7A43-ADC4-80C7105DAEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13413206-A160-8840-8987-5C6928AC73FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C282F8EB-9DBF-5443-912A-C0268FAF3406}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C282F8EB-9DBF-5443-912A-C0268FAF3406}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1392,8 +1392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C4ADC8-1CA3-5646-8A52-7286C98257E4}">
   <dimension ref="A1:G246"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="I242" sqref="I242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1434,7 +1434,7 @@
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="b">
+      <c r="E2" s="4">
         <v>1</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -1457,7 +1457,7 @@
       <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4" t="b">
+      <c r="E3" s="4">
         <v>1</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -1478,7 +1478,7 @@
       <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="4" t="b">
+      <c r="E4" s="4">
         <v>1</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -1498,7 +1498,7 @@
       <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="4" t="b">
+      <c r="E5" s="4">
         <v>1</v>
       </c>
       <c r="F5" s="4" t="s">
@@ -1521,7 +1521,7 @@
       <c r="D6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4" t="b">
+      <c r="E6" s="4">
         <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -1541,7 +1541,7 @@
       <c r="D7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4" t="b">
+      <c r="E7" s="4">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
@@ -1562,7 +1562,7 @@
       <c r="D8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="4" t="b">
+      <c r="E8" s="4">
         <v>1</v>
       </c>
       <c r="F8" s="4" t="s">
@@ -1583,7 +1583,7 @@
       <c r="D9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="4" t="b">
+      <c r="E9" s="4">
         <v>1</v>
       </c>
       <c r="F9" s="4" t="s">
@@ -1604,7 +1604,7 @@
       <c r="D10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="4" t="b">
+      <c r="E10" s="4">
         <v>1</v>
       </c>
       <c r="F10" s="4" t="s">
@@ -1627,7 +1627,7 @@
       <c r="D11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="4" t="b">
+      <c r="E11" s="4">
         <v>1</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -1647,7 +1647,7 @@
       <c r="D12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="4" t="b">
+      <c r="E12" s="4">
         <v>1</v>
       </c>
       <c r="F12" s="4" t="s">
@@ -1668,7 +1668,7 @@
       <c r="D13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="4" t="b">
+      <c r="E13" s="4">
         <v>1</v>
       </c>
       <c r="F13" s="4" t="s">
@@ -1691,7 +1691,7 @@
       <c r="D14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="4" t="b">
+      <c r="E14" s="4">
         <v>1</v>
       </c>
       <c r="F14" s="4" t="s">
@@ -1711,7 +1711,7 @@
       <c r="D15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="4" t="b">
+      <c r="E15" s="4">
         <v>1</v>
       </c>
       <c r="F15" s="4" t="s">
@@ -1732,7 +1732,7 @@
       <c r="D16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="4" t="b">
+      <c r="E16" s="4">
         <v>1</v>
       </c>
       <c r="F16" s="4">
@@ -1749,7 +1749,7 @@
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="4" t="b">
+      <c r="E17" s="4">
         <v>0</v>
       </c>
       <c r="F17" s="4" t="s">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="4" t="b">
+      <c r="E18" s="4">
         <v>0</v>
       </c>
       <c r="F18" s="4" t="s">
@@ -1787,7 +1787,7 @@
       <c r="D19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="4" t="b">
+      <c r="E19" s="4">
         <v>1</v>
       </c>
       <c r="F19" s="4" t="s">
@@ -1810,7 +1810,7 @@
       <c r="D20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="4" t="b">
+      <c r="E20" s="4">
         <v>1</v>
       </c>
       <c r="F20" s="4" t="s">
@@ -1830,7 +1830,7 @@
       <c r="D21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="4" t="b">
+      <c r="E21" s="4">
         <v>1</v>
       </c>
       <c r="F21" s="4" t="s">
@@ -1851,7 +1851,7 @@
       <c r="D22" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="4" t="b">
+      <c r="E22" s="4">
         <v>1</v>
       </c>
       <c r="F22" s="4" t="s">
@@ -1872,7 +1872,7 @@
       <c r="D23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="4" t="b">
+      <c r="E23" s="4">
         <v>1</v>
       </c>
       <c r="F23" s="4" t="s">
@@ -1893,7 +1893,7 @@
       <c r="D24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="4" t="b">
+      <c r="E24" s="4">
         <v>1</v>
       </c>
       <c r="F24" s="4" t="s">
@@ -1914,7 +1914,7 @@
       <c r="D25" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="4" t="b">
+      <c r="E25" s="4">
         <v>1</v>
       </c>
       <c r="F25" s="4" t="s">
@@ -1930,7 +1930,7 @@
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="4" t="b">
+      <c r="E26" s="4">
         <v>0</v>
       </c>
       <c r="F26" s="4" t="s">
@@ -1951,7 +1951,7 @@
       <c r="D27" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="4" t="b">
+      <c r="E27" s="4">
         <v>1</v>
       </c>
       <c r="F27" s="4" t="s">
@@ -1972,7 +1972,7 @@
       <c r="D28" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="4" t="b">
+      <c r="E28" s="4">
         <v>1</v>
       </c>
       <c r="F28" s="4" t="s">
@@ -1992,7 +1992,7 @@
       <c r="D29" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="4" t="b">
+      <c r="E29" s="4">
         <v>1</v>
       </c>
       <c r="F29" s="4" t="s">
@@ -2013,7 +2013,7 @@
       <c r="D30" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="4" t="b">
+      <c r="E30" s="4">
         <v>1</v>
       </c>
       <c r="F30" s="4" t="s">
@@ -2034,7 +2034,7 @@
       <c r="D31" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="4" t="b">
+      <c r="E31" s="4">
         <v>1</v>
       </c>
       <c r="F31" s="4" t="s">
@@ -2055,7 +2055,7 @@
       <c r="D32" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E32" s="4" t="b">
+      <c r="E32" s="4">
         <v>1</v>
       </c>
       <c r="F32" s="4" t="s">
@@ -2075,7 +2075,7 @@
       <c r="D33" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="4" t="b">
+      <c r="E33" s="4">
         <v>1</v>
       </c>
       <c r="F33" s="4" t="s">
@@ -2095,7 +2095,7 @@
       <c r="D34" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E34" s="4" t="b">
+      <c r="E34" s="4">
         <v>1</v>
       </c>
       <c r="F34" s="4" t="s">
@@ -2118,7 +2118,7 @@
       <c r="D35" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E35" s="4" t="b">
+      <c r="E35" s="4">
         <v>1</v>
       </c>
       <c r="F35" s="4" t="s">
@@ -2141,7 +2141,7 @@
       <c r="D36" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E36" s="4" t="b">
+      <c r="E36" s="4">
         <v>1</v>
       </c>
       <c r="F36" s="4" t="s">
@@ -2162,7 +2162,7 @@
       <c r="D37" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="4" t="b">
+      <c r="E37" s="4">
         <v>1</v>
       </c>
       <c r="F37" s="4" t="s">
@@ -2183,7 +2183,7 @@
       <c r="D38" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="4" t="b">
+      <c r="E38" s="4">
         <v>1</v>
       </c>
       <c r="F38" s="4" t="s">
@@ -2203,7 +2203,7 @@
       <c r="D39" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="4" t="b">
+      <c r="E39" s="4">
         <v>1</v>
       </c>
       <c r="F39" s="4" t="s">
@@ -2224,7 +2224,7 @@
       <c r="D40" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E40" s="4" t="b">
+      <c r="E40" s="4">
         <v>1</v>
       </c>
       <c r="F40" s="4" t="s">
@@ -2245,7 +2245,7 @@
       <c r="D41" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E41" s="4" t="b">
+      <c r="E41" s="4">
         <v>1</v>
       </c>
       <c r="F41" s="4" t="s">
@@ -2266,7 +2266,7 @@
       <c r="D42" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E42" s="4" t="b">
+      <c r="E42" s="4">
         <v>1</v>
       </c>
       <c r="F42" s="4" t="s">
@@ -2289,7 +2289,7 @@
       <c r="D43" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E43" s="4" t="b">
+      <c r="E43" s="4">
         <v>1</v>
       </c>
       <c r="F43" s="4" t="s">
@@ -2310,7 +2310,7 @@
       <c r="D44" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="4" t="b">
+      <c r="E44" s="4">
         <v>1</v>
       </c>
       <c r="F44" s="4" t="s">
@@ -2331,7 +2331,7 @@
       <c r="D45" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E45" s="4" t="b">
+      <c r="E45" s="4">
         <v>1</v>
       </c>
       <c r="F45" s="4" t="s">
@@ -2352,7 +2352,7 @@
       <c r="D46" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E46" s="4" t="b">
+      <c r="E46" s="4">
         <v>1</v>
       </c>
       <c r="F46" s="4" t="s">
@@ -2372,7 +2372,7 @@
       <c r="D47" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E47" s="4" t="b">
+      <c r="E47" s="4">
         <v>1</v>
       </c>
       <c r="F47" s="4" t="s">
@@ -2393,7 +2393,7 @@
       <c r="D48" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E48" s="4" t="b">
+      <c r="E48" s="4">
         <v>1</v>
       </c>
       <c r="F48" s="4" t="s">
@@ -2414,7 +2414,7 @@
       <c r="D49" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E49" s="4" t="b">
+      <c r="E49" s="4">
         <v>1</v>
       </c>
       <c r="F49" s="4">
@@ -2435,7 +2435,7 @@
       <c r="D50" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E50" s="4" t="b">
+      <c r="E50" s="4">
         <v>1</v>
       </c>
       <c r="F50" s="4" t="s">
@@ -2458,7 +2458,7 @@
       <c r="D51" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E51" s="4" t="b">
+      <c r="E51" s="4">
         <v>0</v>
       </c>
       <c r="F51" s="4" t="s">
@@ -2479,7 +2479,7 @@
       <c r="D52" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="4" t="b">
+      <c r="E52" s="4">
         <v>0</v>
       </c>
       <c r="F52" s="4" t="s">
@@ -2500,7 +2500,7 @@
       <c r="D53" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="4" t="b">
+      <c r="E53" s="4">
         <v>0</v>
       </c>
       <c r="F53" s="4" t="s">
@@ -2521,7 +2521,7 @@
       <c r="D54" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E54" s="4" t="b">
+      <c r="E54" s="4">
         <v>0</v>
       </c>
       <c r="F54" s="4" t="s">
@@ -2542,7 +2542,7 @@
       <c r="D55" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E55" s="4" t="b">
+      <c r="E55" s="4">
         <v>0</v>
       </c>
       <c r="F55" s="4" t="s">
@@ -2563,7 +2563,7 @@
       <c r="D56" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="4" t="b">
+      <c r="E56" s="4">
         <v>0</v>
       </c>
       <c r="F56" s="4" t="s">
@@ -2584,7 +2584,7 @@
       <c r="D57" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E57" s="4" t="b">
+      <c r="E57" s="4">
         <v>0</v>
       </c>
       <c r="F57" s="4" t="s">
@@ -2605,7 +2605,7 @@
       <c r="D58" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="4" t="b">
+      <c r="E58" s="4">
         <v>0</v>
       </c>
       <c r="F58" s="4" t="s">
@@ -2626,7 +2626,7 @@
       <c r="D59" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E59" s="4" t="b">
+      <c r="E59" s="4">
         <v>0</v>
       </c>
       <c r="F59" s="4" t="s">
@@ -2647,7 +2647,7 @@
       <c r="D60" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E60" s="4" t="b">
+      <c r="E60" s="4">
         <v>0</v>
       </c>
       <c r="F60" s="4" t="s">
@@ -2668,7 +2668,7 @@
       <c r="D61" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E61" s="4" t="b">
+      <c r="E61" s="4">
         <v>0</v>
       </c>
       <c r="F61" s="4" t="s">
@@ -2689,7 +2689,7 @@
       <c r="D62" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E62" s="4" t="b">
+      <c r="E62" s="4">
         <v>0</v>
       </c>
       <c r="F62" s="4" t="s">
@@ -2710,7 +2710,7 @@
       <c r="D63" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E63" s="4" t="b">
+      <c r="E63" s="4">
         <v>1</v>
       </c>
       <c r="F63" s="4" t="s">
@@ -2731,7 +2731,7 @@
       <c r="D64" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E64" s="4" t="b">
+      <c r="E64" s="4">
         <v>1</v>
       </c>
       <c r="F64" s="4" t="s">
@@ -2750,7 +2750,7 @@
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
-      <c r="E65" s="4" t="b">
+      <c r="E65" s="4">
         <v>0</v>
       </c>
       <c r="F65" s="4" t="s">
@@ -2767,7 +2767,7 @@
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
-      <c r="E66" s="4" t="b">
+      <c r="E66" s="4">
         <v>0</v>
       </c>
       <c r="F66" s="4" t="s">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
-      <c r="E67" s="4" t="b">
+      <c r="E67" s="4">
         <v>0</v>
       </c>
       <c r="F67" s="4" t="s">
@@ -2801,7 +2801,7 @@
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
-      <c r="E68" s="4" t="b">
+      <c r="E68" s="4">
         <v>0</v>
       </c>
       <c r="F68" s="4" t="s">
@@ -2818,7 +2818,7 @@
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
-      <c r="E69" s="4" t="b">
+      <c r="E69" s="4">
         <v>0</v>
       </c>
       <c r="F69" s="4" t="s">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
-      <c r="E70" s="4" t="b">
+      <c r="E70" s="4">
         <v>0</v>
       </c>
       <c r="F70" s="4" t="s">
@@ -2852,7 +2852,7 @@
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
-      <c r="E71" s="4" t="b">
+      <c r="E71" s="4">
         <v>0</v>
       </c>
       <c r="F71" s="4" t="s">
@@ -2873,7 +2873,7 @@
       <c r="D72" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E72" s="4" t="b">
+      <c r="E72" s="4">
         <v>1</v>
       </c>
       <c r="F72" s="4" t="s">
@@ -2896,7 +2896,7 @@
       <c r="D73" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E73" s="4" t="b">
+      <c r="E73" s="4">
         <v>1</v>
       </c>
       <c r="F73" s="4" t="s">
@@ -2916,7 +2916,7 @@
       <c r="D74" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E74" s="4" t="b">
+      <c r="E74" s="4">
         <v>1</v>
       </c>
       <c r="F74" s="4" t="s">
@@ -2937,7 +2937,7 @@
       <c r="D75" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E75" s="4" t="b">
+      <c r="E75" s="4">
         <v>1</v>
       </c>
       <c r="F75" s="4" t="s">
@@ -2958,7 +2958,7 @@
       <c r="D76" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E76" s="4" t="b">
+      <c r="E76" s="4">
         <v>1</v>
       </c>
       <c r="F76" s="4" t="s">
@@ -2978,7 +2978,7 @@
       <c r="D77" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E77" s="4" t="b">
+      <c r="E77" s="4">
         <v>1</v>
       </c>
       <c r="F77" s="4" t="s">
@@ -2999,7 +2999,7 @@
       <c r="D78" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E78" s="4" t="b">
+      <c r="E78" s="4">
         <v>1</v>
       </c>
       <c r="F78" s="4" t="s">
@@ -3020,7 +3020,7 @@
       <c r="D79" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E79" s="4" t="b">
+      <c r="E79" s="4">
         <v>1</v>
       </c>
       <c r="F79" s="4" t="s">
@@ -3041,7 +3041,7 @@
       <c r="D80" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E80" s="4" t="b">
+      <c r="E80" s="4">
         <v>1</v>
       </c>
       <c r="F80" s="4" t="s">
@@ -3060,7 +3060,7 @@
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
-      <c r="E81" s="4" t="b">
+      <c r="E81" s="4">
         <v>0</v>
       </c>
       <c r="F81" s="4" t="s">
@@ -3077,7 +3077,7 @@
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
-      <c r="E82" s="4" t="b">
+      <c r="E82" s="4">
         <v>0</v>
       </c>
       <c r="F82" s="4" t="s">
@@ -3098,7 +3098,7 @@
       <c r="D83" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E83" s="4" t="b">
+      <c r="E83" s="4">
         <v>1</v>
       </c>
       <c r="F83" s="4" t="s">
@@ -3121,7 +3121,7 @@
       <c r="D84" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E84" s="4" t="b">
+      <c r="E84" s="4">
         <v>1</v>
       </c>
       <c r="F84" s="4">
@@ -3142,7 +3142,7 @@
       <c r="D85" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E85" s="4" t="b">
+      <c r="E85" s="4">
         <v>1</v>
       </c>
       <c r="F85" s="4" t="s">
@@ -3162,7 +3162,7 @@
       <c r="D86" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E86" s="4" t="b">
+      <c r="E86" s="4">
         <v>1</v>
       </c>
       <c r="F86" s="4" t="s">
@@ -3183,7 +3183,7 @@
       <c r="D87" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E87" s="4" t="b">
+      <c r="E87" s="4">
         <v>1</v>
       </c>
       <c r="F87" s="4" t="s">
@@ -3204,7 +3204,7 @@
       <c r="D88" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E88" s="4" t="b">
+      <c r="E88" s="4">
         <v>1</v>
       </c>
       <c r="F88" s="4" t="s">
@@ -3225,7 +3225,7 @@
       <c r="D89" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E89" s="4" t="b">
+      <c r="E89" s="4">
         <v>1</v>
       </c>
       <c r="F89" s="4" t="s">
@@ -3248,7 +3248,7 @@
       <c r="D90" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E90" s="4" t="b">
+      <c r="E90" s="4">
         <v>1</v>
       </c>
       <c r="F90" s="4" t="s">
@@ -3268,7 +3268,7 @@
       <c r="D91" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E91" s="4" t="b">
+      <c r="E91" s="4">
         <v>1</v>
       </c>
       <c r="F91" s="4" t="s">
@@ -3289,7 +3289,7 @@
       <c r="D92" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E92" s="4" t="b">
+      <c r="E92" s="4">
         <v>1</v>
       </c>
       <c r="F92" s="4" t="s">
@@ -3310,7 +3310,7 @@
       <c r="D93" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E93" s="4" t="b">
+      <c r="E93" s="4">
         <v>1</v>
       </c>
       <c r="F93" s="4" t="s">
@@ -3331,7 +3331,7 @@
       <c r="D94" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E94" s="4" t="b">
+      <c r="E94" s="4">
         <v>1</v>
       </c>
       <c r="F94" s="4" t="s">
@@ -3350,7 +3350,7 @@
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
-      <c r="E95" s="4" t="b">
+      <c r="E95" s="4">
         <v>0</v>
       </c>
       <c r="F95" s="4" t="s">
@@ -3367,7 +3367,7 @@
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
-      <c r="E96" s="4" t="b">
+      <c r="E96" s="4">
         <v>0</v>
       </c>
       <c r="F96" s="4" t="s">
@@ -3384,7 +3384,7 @@
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
-      <c r="E97" s="4" t="b">
+      <c r="E97" s="4">
         <v>0</v>
       </c>
       <c r="F97" s="4" t="s">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
-      <c r="E98" s="4" t="b">
+      <c r="E98" s="4">
         <v>0</v>
       </c>
       <c r="F98" s="4" t="s">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
-      <c r="E99" s="4" t="b">
+      <c r="E99" s="4">
         <v>0</v>
       </c>
       <c r="F99" s="4" t="s">
@@ -3434,7 +3434,7 @@
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
-      <c r="E100" s="4" t="b">
+      <c r="E100" s="4">
         <v>0</v>
       </c>
       <c r="F100" s="4" t="s">
@@ -3451,7 +3451,7 @@
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
-      <c r="E101" s="4" t="b">
+      <c r="E101" s="4">
         <v>0</v>
       </c>
       <c r="F101" s="4" t="s">
@@ -3468,7 +3468,7 @@
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
-      <c r="E102" s="4" t="b">
+      <c r="E102" s="4">
         <v>0</v>
       </c>
       <c r="F102" s="4" t="s">
@@ -3485,7 +3485,7 @@
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
-      <c r="E103" s="4" t="b">
+      <c r="E103" s="4">
         <v>0</v>
       </c>
       <c r="F103" s="4" t="s">
@@ -3506,7 +3506,7 @@
       <c r="D104" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E104" s="4" t="b">
+      <c r="E104" s="4">
         <v>1</v>
       </c>
       <c r="F104" s="4" t="s">
@@ -3527,7 +3527,7 @@
       <c r="D105" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E105" s="4" t="b">
+      <c r="E105" s="4">
         <v>1</v>
       </c>
       <c r="F105" s="4" t="s">
@@ -3548,7 +3548,7 @@
       <c r="D106" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E106" s="4" t="b">
+      <c r="E106" s="4">
         <v>1</v>
       </c>
       <c r="F106" s="4">
@@ -3569,7 +3569,7 @@
       <c r="D107" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E107" s="4" t="b">
+      <c r="E107" s="4">
         <v>1</v>
       </c>
       <c r="F107" s="4" t="s">
@@ -3586,7 +3586,7 @@
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
-      <c r="E108" s="4" t="b">
+      <c r="E108" s="4">
         <v>0</v>
       </c>
       <c r="F108" s="4" t="s">
@@ -3602,7 +3602,7 @@
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
-      <c r="E109" s="4" t="b">
+      <c r="E109" s="4">
         <v>0</v>
       </c>
       <c r="F109" s="4" t="s">
@@ -3618,7 +3618,7 @@
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
-      <c r="E110" s="4" t="b">
+      <c r="E110" s="4">
         <v>0</v>
       </c>
       <c r="F110" s="4" t="s">
@@ -3638,7 +3638,7 @@
       <c r="D111" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E111" s="4" t="b">
+      <c r="E111" s="4">
         <v>1</v>
       </c>
       <c r="F111" s="4" t="s">
@@ -3661,7 +3661,7 @@
       <c r="D112" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E112" s="4" t="b">
+      <c r="E112" s="4">
         <v>1</v>
       </c>
       <c r="F112" s="4" t="s">
@@ -3681,7 +3681,7 @@
       <c r="D113" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E113" s="4" t="b">
+      <c r="E113" s="4">
         <v>1</v>
       </c>
       <c r="F113" s="4">
@@ -3702,7 +3702,7 @@
       <c r="D114" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E114" s="4" t="b">
+      <c r="E114" s="4">
         <v>1</v>
       </c>
       <c r="F114" s="4">
@@ -3723,7 +3723,7 @@
       <c r="D115" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E115" s="4" t="b">
+      <c r="E115" s="4">
         <v>1</v>
       </c>
       <c r="F115" s="4">
@@ -3744,7 +3744,7 @@
       <c r="D116" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E116" s="4" t="b">
+      <c r="E116" s="4">
         <v>1</v>
       </c>
       <c r="F116" s="4">
@@ -3765,7 +3765,7 @@
       <c r="D117" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="E117" s="4" t="b">
+      <c r="E117" s="4">
         <v>1</v>
       </c>
       <c r="F117" s="4" t="s">
@@ -3788,7 +3788,7 @@
       <c r="D118" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E118" s="4" t="b">
+      <c r="E118" s="4">
         <v>1</v>
       </c>
       <c r="F118" s="4" t="s">
@@ -3811,7 +3811,7 @@
       <c r="D119" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E119" s="4" t="b">
+      <c r="E119" s="4">
         <v>1</v>
       </c>
       <c r="F119" s="4" t="s">
@@ -3831,7 +3831,7 @@
       <c r="D120" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E120" s="4" t="b">
+      <c r="E120" s="4">
         <v>1</v>
       </c>
       <c r="F120" s="4">
@@ -3852,7 +3852,7 @@
       <c r="D121" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E121" s="4" t="b">
+      <c r="E121" s="4">
         <v>1</v>
       </c>
       <c r="F121" s="4">
@@ -3873,7 +3873,7 @@
       <c r="D122" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E122" s="4" t="b">
+      <c r="E122" s="4">
         <v>1</v>
       </c>
       <c r="F122" s="4">
@@ -3890,7 +3890,7 @@
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
-      <c r="E123" s="4" t="b">
+      <c r="E123" s="4">
         <v>0</v>
       </c>
       <c r="F123" s="4" t="s">
@@ -3907,7 +3907,7 @@
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
-      <c r="E124" s="4" t="b">
+      <c r="E124" s="4">
         <v>0</v>
       </c>
       <c r="F124" s="4" t="s">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
-      <c r="E125" s="4" t="b">
+      <c r="E125" s="4">
         <v>0</v>
       </c>
       <c r="F125" s="4" t="s">
@@ -3940,7 +3940,7 @@
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
-      <c r="E126" s="4" t="b">
+      <c r="E126" s="4">
         <v>0</v>
       </c>
       <c r="F126" s="4" t="s">
@@ -3956,7 +3956,7 @@
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
-      <c r="E127" s="4" t="b">
+      <c r="E127" s="4">
         <v>0</v>
       </c>
       <c r="F127" s="4" t="s">
@@ -3977,7 +3977,7 @@
       <c r="D128" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E128" s="4" t="b">
+      <c r="E128" s="4">
         <v>1</v>
       </c>
       <c r="F128" s="4" t="s">
@@ -4000,7 +4000,7 @@
       <c r="D129" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E129" s="4" t="b">
+      <c r="E129" s="4">
         <v>1</v>
       </c>
       <c r="F129" s="4" t="s">
@@ -4021,7 +4021,7 @@
       <c r="D130" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E130" s="4" t="b">
+      <c r="E130" s="4">
         <v>1</v>
       </c>
       <c r="F130" s="4" t="s">
@@ -4042,7 +4042,7 @@
       <c r="D131" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E131" s="4" t="b">
+      <c r="E131" s="4">
         <v>1</v>
       </c>
       <c r="F131" s="4" t="s">
@@ -4063,7 +4063,7 @@
       <c r="D132" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E132" s="4" t="b">
+      <c r="E132" s="4">
         <v>1</v>
       </c>
       <c r="F132" s="4" t="s">
@@ -4083,7 +4083,7 @@
       <c r="D133" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E133" s="4" t="b">
+      <c r="E133" s="4">
         <v>1</v>
       </c>
       <c r="F133" s="4" t="s">
@@ -4103,7 +4103,7 @@
       <c r="D134" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E134" s="4" t="b">
+      <c r="E134" s="4">
         <v>1</v>
       </c>
       <c r="F134" s="4" t="s">
@@ -4124,7 +4124,7 @@
       <c r="D135" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E135" s="4" t="b">
+      <c r="E135" s="4">
         <v>1</v>
       </c>
       <c r="F135" s="4" t="s">
@@ -4145,7 +4145,7 @@
       <c r="D136" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E136" s="4" t="b">
+      <c r="E136" s="4">
         <v>1</v>
       </c>
       <c r="F136" s="4" t="s">
@@ -4164,7 +4164,7 @@
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
-      <c r="E137" s="4" t="b">
+      <c r="E137" s="4">
         <v>0</v>
       </c>
       <c r="F137" s="4" t="s">
@@ -4180,7 +4180,7 @@
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
-      <c r="E138" s="4" t="b">
+      <c r="E138" s="4">
         <v>0</v>
       </c>
       <c r="F138" s="4" t="s">
@@ -4201,7 +4201,7 @@
       <c r="D139" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E139" s="4" t="b">
+      <c r="E139" s="4">
         <v>1</v>
       </c>
       <c r="F139" s="4" t="s">
@@ -4224,7 +4224,7 @@
       <c r="D140" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E140" s="4" t="b">
+      <c r="E140" s="4">
         <v>1</v>
       </c>
       <c r="F140" s="4" t="s">
@@ -4245,7 +4245,7 @@
       <c r="D141" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E141" s="4" t="b">
+      <c r="E141" s="4">
         <v>1</v>
       </c>
       <c r="F141" s="4" t="s">
@@ -4266,7 +4266,7 @@
       <c r="D142" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E142" s="4" t="b">
+      <c r="E142" s="4">
         <v>1</v>
       </c>
       <c r="F142" s="4" t="s">
@@ -4286,7 +4286,7 @@
       <c r="D143" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E143" s="4" t="b">
+      <c r="E143" s="4">
         <v>1</v>
       </c>
       <c r="F143" s="4" t="s">
@@ -4307,7 +4307,7 @@
       <c r="D144" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E144" s="4" t="b">
+      <c r="E144" s="4">
         <v>1</v>
       </c>
       <c r="F144" s="4" t="s">
@@ -4327,7 +4327,7 @@
       <c r="D145" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E145" s="4" t="b">
+      <c r="E145" s="4">
         <v>1</v>
       </c>
       <c r="F145" s="4" t="s">
@@ -4347,7 +4347,7 @@
       <c r="D146" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E146" s="4" t="b">
+      <c r="E146" s="4">
         <v>1</v>
       </c>
       <c r="F146" s="4" t="s">
@@ -4367,7 +4367,7 @@
       <c r="D147" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E147" s="4" t="b">
+      <c r="E147" s="4">
         <v>1</v>
       </c>
       <c r="F147" s="4" t="s">
@@ -4387,7 +4387,7 @@
       <c r="D148" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E148" s="4" t="b">
+      <c r="E148" s="4">
         <v>1</v>
       </c>
       <c r="F148" s="4" t="s">
@@ -4404,7 +4404,7 @@
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
-      <c r="E149" s="4" t="b">
+      <c r="E149" s="4">
         <v>0</v>
       </c>
       <c r="F149" s="4" t="s">
@@ -4421,7 +4421,7 @@
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
-      <c r="E150" s="4" t="b">
+      <c r="E150" s="4">
         <v>0</v>
       </c>
       <c r="F150" s="4" t="s">
@@ -4442,7 +4442,7 @@
       <c r="D151" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="E151" s="4" t="b">
+      <c r="E151" s="4">
         <v>1</v>
       </c>
       <c r="F151" s="4" t="s">
@@ -4463,7 +4463,7 @@
       <c r="D152" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E152" s="4" t="b">
+      <c r="E152" s="4">
         <v>1</v>
       </c>
       <c r="F152" s="4" t="s">
@@ -4482,7 +4482,7 @@
       </c>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
-      <c r="E153" s="4" t="b">
+      <c r="E153" s="4">
         <v>0</v>
       </c>
       <c r="F153" s="4" t="s">
@@ -4502,7 +4502,7 @@
       <c r="D154" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E154" s="4" t="b">
+      <c r="E154" s="4">
         <v>1</v>
       </c>
       <c r="F154" s="4" t="s">
@@ -4525,7 +4525,7 @@
       <c r="D155" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="E155" s="4" t="b">
+      <c r="E155" s="4">
         <v>1</v>
       </c>
       <c r="F155" s="4" t="s">
@@ -4548,7 +4548,7 @@
       <c r="D156" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E156" s="4" t="b">
+      <c r="E156" s="4">
         <v>1</v>
       </c>
       <c r="F156" s="4" t="s">
@@ -4569,7 +4569,7 @@
       <c r="D157" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E157" s="4" t="b">
+      <c r="E157" s="4">
         <v>1</v>
       </c>
       <c r="F157" s="4" t="s">
@@ -4589,7 +4589,7 @@
       <c r="D158" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E158" s="4" t="b">
+      <c r="E158" s="4">
         <v>1</v>
       </c>
       <c r="F158" s="4" t="s">
@@ -4609,7 +4609,7 @@
       <c r="D159" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E159" s="4" t="b">
+      <c r="E159" s="4">
         <v>1</v>
       </c>
       <c r="F159" s="4" t="s">
@@ -4630,7 +4630,7 @@
       <c r="D160" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E160" s="4" t="b">
+      <c r="E160" s="4">
         <v>1</v>
       </c>
       <c r="F160" s="4" t="s">
@@ -4651,7 +4651,7 @@
       <c r="D161" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E161" s="4" t="b">
+      <c r="E161" s="4">
         <v>1</v>
       </c>
       <c r="F161" s="4" t="s">
@@ -4672,7 +4672,7 @@
       <c r="D162" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="E162" s="4" t="b">
+      <c r="E162" s="4">
         <v>1</v>
       </c>
       <c r="F162" s="4" t="s">
@@ -4695,7 +4695,7 @@
       <c r="D163" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="E163" s="4" t="b">
+      <c r="E163" s="4">
         <v>1</v>
       </c>
       <c r="F163" s="4" t="s">
@@ -4716,7 +4716,7 @@
       <c r="D164" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E164" s="4" t="b">
+      <c r="E164" s="4">
         <v>1</v>
       </c>
       <c r="F164" s="4" t="s">
@@ -4739,7 +4739,7 @@
       <c r="D165" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E165" s="4" t="b">
+      <c r="E165" s="4">
         <v>1</v>
       </c>
       <c r="F165" s="4" t="s">
@@ -4759,7 +4759,7 @@
       <c r="D166" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E166" s="4" t="b">
+      <c r="E166" s="4">
         <v>1</v>
       </c>
       <c r="F166" s="4" t="s">
@@ -4780,7 +4780,7 @@
       <c r="D167" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E167" s="4" t="b">
+      <c r="E167" s="4">
         <v>1</v>
       </c>
       <c r="F167" s="4" t="s">
@@ -4801,7 +4801,7 @@
       <c r="D168" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E168" s="4" t="b">
+      <c r="E168" s="4">
         <v>1</v>
       </c>
       <c r="F168" s="4" t="s">
@@ -4818,7 +4818,7 @@
       </c>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
-      <c r="E169" s="4" t="b">
+      <c r="E169" s="4">
         <v>0</v>
       </c>
       <c r="F169" s="4" t="s">
@@ -4835,7 +4835,7 @@
       </c>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
-      <c r="E170" s="4" t="b">
+      <c r="E170" s="4">
         <v>0</v>
       </c>
       <c r="F170" s="4" t="s">
@@ -4852,7 +4852,7 @@
       </c>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
-      <c r="E171" s="4" t="b">
+      <c r="E171" s="4">
         <v>0</v>
       </c>
       <c r="F171" s="4" t="s">
@@ -4869,7 +4869,7 @@
       </c>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
-      <c r="E172" s="4" t="b">
+      <c r="E172" s="4">
         <v>0</v>
       </c>
       <c r="F172" s="4" t="s">
@@ -4886,7 +4886,7 @@
       </c>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
-      <c r="E173" s="4" t="b">
+      <c r="E173" s="4">
         <v>0</v>
       </c>
       <c r="F173" s="4" t="s">
@@ -4902,7 +4902,7 @@
       </c>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
-      <c r="E174" s="4" t="b">
+      <c r="E174" s="4">
         <v>0</v>
       </c>
       <c r="F174" s="4" t="s">
@@ -4919,7 +4919,7 @@
       </c>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
-      <c r="E175" s="4" t="b">
+      <c r="E175" s="4">
         <v>0</v>
       </c>
       <c r="F175" s="4" t="s">
@@ -4938,7 +4938,7 @@
         <v>191</v>
       </c>
       <c r="D176" s="4"/>
-      <c r="E176" s="4" t="b">
+      <c r="E176" s="4">
         <v>0</v>
       </c>
       <c r="F176" s="4" t="s">
@@ -4955,7 +4955,7 @@
       </c>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
-      <c r="E177" s="4" t="b">
+      <c r="E177" s="4">
         <v>0</v>
       </c>
       <c r="F177" s="4" t="s">
@@ -4972,7 +4972,7 @@
       </c>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
-      <c r="E178" s="4" t="b">
+      <c r="E178" s="4">
         <v>0</v>
       </c>
       <c r="F178" s="4" t="s">
@@ -4993,7 +4993,7 @@
       <c r="D179" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E179" s="4" t="b">
+      <c r="E179" s="4">
         <v>1</v>
       </c>
       <c r="F179" s="4" t="s">
@@ -5016,7 +5016,7 @@
       <c r="D180" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E180" s="4" t="b">
+      <c r="E180" s="4">
         <v>1</v>
       </c>
       <c r="F180" s="4" t="s">
@@ -5036,7 +5036,7 @@
       <c r="D181" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E181" s="4" t="b">
+      <c r="E181" s="4">
         <v>1</v>
       </c>
       <c r="F181" s="4" t="s">
@@ -5057,7 +5057,7 @@
       <c r="D182" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E182" s="4" t="b">
+      <c r="E182" s="4">
         <v>1</v>
       </c>
       <c r="F182" s="4" t="s">
@@ -5077,7 +5077,7 @@
       <c r="D183" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E183" s="4" t="b">
+      <c r="E183" s="4">
         <v>1</v>
       </c>
       <c r="F183" s="4" t="s">
@@ -5098,7 +5098,7 @@
       <c r="D184" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E184" s="4" t="b">
+      <c r="E184" s="4">
         <v>1</v>
       </c>
       <c r="F184" s="4" t="s">
@@ -5117,7 +5117,7 @@
       </c>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
-      <c r="E185" s="4" t="b">
+      <c r="E185" s="4">
         <v>0</v>
       </c>
       <c r="F185" s="4" t="s">
@@ -5133,7 +5133,7 @@
       </c>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
-      <c r="E186" s="4" t="b">
+      <c r="E186" s="4">
         <v>0</v>
       </c>
       <c r="F186" s="4" t="s">
@@ -5153,7 +5153,7 @@
       <c r="D187" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="E187" s="4" t="b">
+      <c r="E187" s="4">
         <v>1</v>
       </c>
       <c r="F187" s="4" t="s">
@@ -5176,7 +5176,7 @@
       <c r="D188" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E188" s="4" t="b">
+      <c r="E188" s="4">
         <v>1</v>
       </c>
       <c r="F188" s="4" t="s">
@@ -5197,7 +5197,7 @@
       <c r="D189" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E189" s="4" t="b">
+      <c r="E189" s="4">
         <v>1</v>
       </c>
       <c r="F189" s="4">
@@ -5218,7 +5218,7 @@
       <c r="D190" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E190" s="4" t="b">
+      <c r="E190" s="4">
         <v>1</v>
       </c>
       <c r="F190" s="4">
@@ -5235,7 +5235,7 @@
       </c>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
-      <c r="E191" s="4" t="b">
+      <c r="E191" s="4">
         <v>0</v>
       </c>
       <c r="F191" s="4" t="s">
@@ -5252,7 +5252,7 @@
       </c>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
-      <c r="E192" s="4" t="b">
+      <c r="E192" s="4">
         <v>0</v>
       </c>
       <c r="F192" s="4" t="s">
@@ -5268,7 +5268,7 @@
       </c>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
-      <c r="E193" s="4" t="b">
+      <c r="E193" s="4">
         <v>0</v>
       </c>
       <c r="F193" s="4" t="s">
@@ -5289,7 +5289,7 @@
       <c r="D194" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E194" s="4" t="b">
+      <c r="E194" s="4">
         <v>1</v>
       </c>
       <c r="F194" s="4" t="s">
@@ -5308,7 +5308,7 @@
       </c>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
-      <c r="E195" s="4" t="b">
+      <c r="E195" s="4">
         <v>0</v>
       </c>
       <c r="F195" s="4" t="s">
@@ -5325,7 +5325,7 @@
       </c>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
-      <c r="E196" s="4" t="b">
+      <c r="E196" s="4">
         <v>0</v>
       </c>
       <c r="F196" s="4" t="s">
@@ -5342,7 +5342,7 @@
       </c>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
-      <c r="E197" s="4" t="b">
+      <c r="E197" s="4">
         <v>0</v>
       </c>
       <c r="F197" s="4" t="s">
@@ -5359,7 +5359,7 @@
       </c>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
-      <c r="E198" s="4" t="b">
+      <c r="E198" s="4">
         <v>0</v>
       </c>
       <c r="F198" s="4" t="s">
@@ -5378,7 +5378,7 @@
         <v>215</v>
       </c>
       <c r="D199" s="4"/>
-      <c r="E199" s="4" t="b">
+      <c r="E199" s="4">
         <v>0</v>
       </c>
       <c r="F199" s="4" t="s">
@@ -5395,7 +5395,7 @@
       </c>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
-      <c r="E200" s="4" t="b">
+      <c r="E200" s="4">
         <v>0</v>
       </c>
       <c r="F200" s="4" t="s">
@@ -5412,7 +5412,7 @@
       </c>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
-      <c r="E201" s="4" t="b">
+      <c r="E201" s="4">
         <v>0</v>
       </c>
       <c r="F201" s="4" t="s">
@@ -5429,7 +5429,7 @@
       </c>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
-      <c r="E202" s="4" t="b">
+      <c r="E202" s="4">
         <v>0</v>
       </c>
       <c r="F202" s="4" t="s">
@@ -5446,7 +5446,7 @@
       </c>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
-      <c r="E203" s="4" t="b">
+      <c r="E203" s="4">
         <v>0</v>
       </c>
       <c r="F203" s="4" t="s">
@@ -5463,7 +5463,7 @@
       </c>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
-      <c r="E204" s="4" t="b">
+      <c r="E204" s="4">
         <v>0</v>
       </c>
       <c r="F204" s="4" t="s">
@@ -5480,7 +5480,7 @@
       </c>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
-      <c r="E205" s="4" t="b">
+      <c r="E205" s="4">
         <v>0</v>
       </c>
       <c r="F205" s="4" t="s">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
-      <c r="E206" s="4" t="b">
+      <c r="E206" s="4">
         <v>0</v>
       </c>
       <c r="F206" s="4" t="s">
@@ -5518,8 +5518,8 @@
       <c r="D207" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="E207" s="4" t="b">
-        <v>0</v>
+      <c r="E207" s="4">
+        <v>1</v>
       </c>
       <c r="F207" s="4">
         <v>205</v>
@@ -5535,7 +5535,7 @@
       </c>
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
-      <c r="E208" s="4" t="b">
+      <c r="E208" s="4">
         <v>0</v>
       </c>
       <c r="F208" s="4" t="s">
@@ -5552,7 +5552,7 @@
       </c>
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
-      <c r="E209" s="4" t="b">
+      <c r="E209" s="4">
         <v>0</v>
       </c>
       <c r="F209" s="4" t="s">
@@ -5569,7 +5569,7 @@
       </c>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
-      <c r="E210" s="4" t="b">
+      <c r="E210" s="4">
         <v>0</v>
       </c>
       <c r="F210" s="4" t="s">
@@ -5586,7 +5586,7 @@
       </c>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
-      <c r="E211" s="4" t="b">
+      <c r="E211" s="4">
         <v>0</v>
       </c>
       <c r="F211" s="4" t="s">
@@ -5603,7 +5603,7 @@
       </c>
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
-      <c r="E212" s="4" t="b">
+      <c r="E212" s="4">
         <v>0</v>
       </c>
       <c r="F212" s="4" t="s">
@@ -5620,7 +5620,7 @@
       </c>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
-      <c r="E213" s="4" t="b">
+      <c r="E213" s="4">
         <v>0</v>
       </c>
       <c r="F213" s="4" t="s">
@@ -5637,7 +5637,7 @@
       </c>
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
-      <c r="E214" s="4" t="b">
+      <c r="E214" s="4">
         <v>0</v>
       </c>
       <c r="F214" s="4" t="s">
@@ -5654,7 +5654,7 @@
       </c>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
-      <c r="E215" s="4" t="b">
+      <c r="E215" s="4">
         <v>0</v>
       </c>
       <c r="F215" s="4" t="s">
@@ -5671,7 +5671,7 @@
       </c>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
-      <c r="E216" s="4" t="b">
+      <c r="E216" s="4">
         <v>0</v>
       </c>
       <c r="F216" s="4" t="s">
@@ -5688,7 +5688,7 @@
       </c>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
-      <c r="E217" s="4" t="b">
+      <c r="E217" s="4">
         <v>0</v>
       </c>
       <c r="F217" s="4" t="s">
@@ -5705,7 +5705,7 @@
       </c>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
-      <c r="E218" s="4" t="b">
+      <c r="E218" s="4">
         <v>0</v>
       </c>
       <c r="F218" s="4" t="s">
@@ -5722,7 +5722,7 @@
       </c>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
-      <c r="E219" s="4" t="b">
+      <c r="E219" s="4">
         <v>0</v>
       </c>
       <c r="F219" s="4" t="s">
@@ -5739,7 +5739,7 @@
       </c>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
-      <c r="E220" s="4" t="b">
+      <c r="E220" s="4">
         <v>0</v>
       </c>
       <c r="F220" s="4" t="s">
@@ -5756,7 +5756,7 @@
       </c>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
-      <c r="E221" s="4" t="b">
+      <c r="E221" s="4">
         <v>0</v>
       </c>
       <c r="F221" s="4" t="s">
@@ -5773,7 +5773,7 @@
       </c>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
-      <c r="E222" s="4" t="b">
+      <c r="E222" s="4">
         <v>0</v>
       </c>
       <c r="F222" s="4" t="s">
@@ -5790,7 +5790,7 @@
       </c>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
-      <c r="E223" s="4" t="b">
+      <c r="E223" s="4">
         <v>0</v>
       </c>
       <c r="F223" s="4" t="s">
@@ -5807,7 +5807,7 @@
       </c>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
-      <c r="E224" s="4" t="b">
+      <c r="E224" s="4">
         <v>0</v>
       </c>
       <c r="F224" s="4" t="s">
@@ -5824,7 +5824,7 @@
       </c>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
-      <c r="E225" s="4" t="b">
+      <c r="E225" s="4">
         <v>0</v>
       </c>
       <c r="F225" s="4" t="s">
@@ -5845,7 +5845,7 @@
       <c r="D226" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="E226" s="4" t="b">
+      <c r="E226" s="4">
         <v>1</v>
       </c>
       <c r="F226" s="4" t="s">
@@ -5868,7 +5868,7 @@
       <c r="D227" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="E227" s="4" t="b">
+      <c r="E227" s="4">
         <v>1</v>
       </c>
       <c r="F227" s="4" t="s">
@@ -5887,7 +5887,7 @@
       </c>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
-      <c r="E228" s="4" t="b">
+      <c r="E228" s="4">
         <v>0</v>
       </c>
       <c r="F228" s="4" t="s">
@@ -5908,7 +5908,7 @@
       <c r="D229" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="E229" s="4" t="b">
+      <c r="E229" s="4">
         <v>1</v>
       </c>
       <c r="F229" s="4" t="s">
@@ -5931,7 +5931,7 @@
       <c r="D230" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E230" s="4" t="b">
+      <c r="E230" s="4">
         <v>1</v>
       </c>
       <c r="F230" s="4">
@@ -5952,7 +5952,7 @@
       <c r="D231" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E231" s="4" t="b">
+      <c r="E231" s="4">
         <v>1</v>
       </c>
       <c r="F231" s="4">
@@ -5973,7 +5973,7 @@
       <c r="D232" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E232" s="4" t="b">
+      <c r="E232" s="4">
         <v>1</v>
       </c>
       <c r="F232" s="4">
@@ -5994,7 +5994,7 @@
       <c r="D233" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="E233" s="4" t="b">
+      <c r="E233" s="4">
         <v>1</v>
       </c>
       <c r="F233" s="4" t="s">
@@ -6017,7 +6017,7 @@
       <c r="D234" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="E234" s="4" t="b">
+      <c r="E234" s="4">
         <v>1</v>
       </c>
       <c r="F234" s="4" t="s">
@@ -6040,7 +6040,7 @@
       <c r="D235" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="E235" s="4" t="b">
+      <c r="E235" s="4">
         <v>1</v>
       </c>
       <c r="F235" s="4" t="s">
@@ -6059,7 +6059,7 @@
       </c>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
-      <c r="E236" s="4" t="b">
+      <c r="E236" s="4">
         <v>0</v>
       </c>
       <c r="F236" s="4" t="s">
@@ -6076,7 +6076,7 @@
       </c>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
-      <c r="E237" s="4" t="b">
+      <c r="E237" s="4">
         <v>0</v>
       </c>
       <c r="F237" s="4" t="s">
@@ -6093,7 +6093,7 @@
       </c>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
-      <c r="E238" s="4" t="b">
+      <c r="E238" s="4">
         <v>0</v>
       </c>
       <c r="F238" s="4" t="s">
@@ -6110,7 +6110,7 @@
       </c>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
-      <c r="E239" s="4" t="b">
+      <c r="E239" s="4">
         <v>0</v>
       </c>
       <c r="F239" s="4" t="s">
@@ -6127,7 +6127,7 @@
       </c>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
-      <c r="E240" s="4" t="b">
+      <c r="E240" s="4">
         <v>0</v>
       </c>
       <c r="F240" s="4" t="s">
@@ -6148,7 +6148,7 @@
       <c r="D241" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E241" s="4" t="b">
+      <c r="E241" s="4">
         <v>1</v>
       </c>
       <c r="F241" s="4" t="s">
@@ -6168,7 +6168,7 @@
       <c r="D242" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E242" s="4" t="b">
+      <c r="E242" s="4">
         <v>1</v>
       </c>
       <c r="F242" s="4" t="s">
@@ -6188,7 +6188,7 @@
       <c r="D243" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E243" s="4" t="b">
+      <c r="E243" s="4">
         <v>1</v>
       </c>
       <c r="F243" s="4" t="s">
@@ -6209,7 +6209,7 @@
       <c r="D244" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E244" s="4" t="b">
+      <c r="E244" s="4">
         <v>1</v>
       </c>
       <c r="F244" s="4" t="s">
@@ -6230,7 +6230,7 @@
       <c r="D245" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E245" s="4" t="b">
+      <c r="E245" s="4">
         <v>1</v>
       </c>
       <c r="F245" s="4" t="s">
@@ -6251,7 +6251,7 @@
       <c r="D246" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E246" s="4" t="b">
+      <c r="E246" s="4">
         <v>1</v>
       </c>
       <c r="F246" s="4" t="s">

--- a/coway/main/management/commands/Info.xlsx
+++ b/coway/main/management/commands/Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jomin-u/Desktop/simba5_COWAY/coway/main/management/commands/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13413206-A160-8840-8987-5C6928AC73FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A8F805-26B6-3D41-9182-9518D76566CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C282F8EB-9DBF-5443-912A-C0268FAF3406}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C282F8EB-9DBF-5443-912A-C0268FAF3406}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -844,10 +844,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>coway/static/images/문화관_1층.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>coway/static/images/문화관_3층_경영2층연결.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -990,6 +986,9 @@
   <si>
     <t>1층 입구</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coway/static/images/문화관_1층.jpg</t>
   </si>
 </sst>
 </file>
@@ -1392,8 +1391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C4ADC8-1CA3-5646-8A52-7286C98257E4}">
   <dimension ref="A1:G246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="I242" sqref="I242"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1957,7 +1956,9 @@
       <c r="F27" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G27" s="4"/>
+      <c r="G27" s="4" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3">
@@ -2102,7 +2103,7 @@
         <v>50</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2125,7 +2126,7 @@
         <v>53</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2273,7 +2274,7 @@
         <v>61</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2442,7 +2443,7 @@
         <v>69</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2738,7 +2739,7 @@
         <v>85</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2880,7 +2881,7 @@
         <v>94</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3048,7 +3049,7 @@
         <v>100</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3105,7 +3106,7 @@
         <v>104</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3232,7 +3233,7 @@
         <v>110</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3338,7 +3339,7 @@
         <v>116</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -3645,7 +3646,7 @@
         <v>134</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -3763,7 +3764,7 @@
         <v>133</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E117" s="4">
         <v>1</v>
@@ -3772,7 +3773,7 @@
         <v>136</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3795,7 +3796,7 @@
         <v>138</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3984,7 +3985,7 @@
         <v>146</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -4152,7 +4153,7 @@
         <v>151</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -4208,7 +4209,7 @@
         <v>156</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -4470,7 +4471,7 @@
         <v>167</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -4509,7 +4510,7 @@
         <v>169</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -4523,7 +4524,7 @@
         <v>170</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E155" s="4">
         <v>1</v>
@@ -4532,7 +4533,7 @@
         <v>171</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -4670,7 +4671,7 @@
         <v>170</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E162" s="4">
         <v>1</v>
@@ -4679,7 +4680,7 @@
         <v>175</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4723,7 +4724,7 @@
         <v>179</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -5000,7 +5001,7 @@
         <v>196</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -5105,7 +5106,7 @@
         <v>200</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -5151,7 +5152,7 @@
         <v>203</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E187" s="4">
         <v>1</v>
@@ -5160,7 +5161,7 @@
         <v>204</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -5296,7 +5297,7 @@
         <v>210</v>
       </c>
       <c r="G194" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -5843,7 +5844,7 @@
         <v>178</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E226" s="4">
         <v>1</v>
@@ -5852,7 +5853,7 @@
         <v>244</v>
       </c>
       <c r="G226" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -5866,7 +5867,7 @@
         <v>209</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E227" s="4">
         <v>1</v>
@@ -5875,7 +5876,7 @@
         <v>245</v>
       </c>
       <c r="G227" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -5915,7 +5916,7 @@
         <v>249</v>
       </c>
       <c r="G229" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -5992,7 +5993,7 @@
         <v>43</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E233" s="4">
         <v>1</v>
@@ -6000,9 +6001,7 @@
       <c r="F233" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="G233" s="4" t="s">
-        <v>267</v>
-      </c>
+      <c r="G233" s="4"/>
     </row>
     <row r="234" spans="1:7">
       <c r="A234" s="3">
@@ -6024,7 +6023,7 @@
         <v>252</v>
       </c>
       <c r="G234" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -6047,7 +6046,7 @@
         <v>253</v>
       </c>
       <c r="G235" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="236" spans="1:7">

--- a/coway/main/management/commands/Info.xlsx
+++ b/coway/main/management/commands/Info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jomin-u/Desktop/simba5_COWAY/coway/main/management/commands/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A8F805-26B6-3D41-9182-9518D76566CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C5102D-1371-3C4F-B363-F2755D777613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C282F8EB-9DBF-5443-912A-C0268FAF3406}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="305">
   <si>
     <t>latitude</t>
   </si>
@@ -989,6 +989,10 @@
   </si>
   <si>
     <t>coway/static/images/문화관_1층.jpg</t>
+  </si>
+  <si>
+    <t>coway/static/images/준비중.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1391,8 +1395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C4ADC8-1CA3-5646-8A52-7286C98257E4}">
   <dimension ref="A1:G246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
+      <selection activeCell="H238" sqref="H238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1815,6 +1819,9 @@
       <c r="F20" s="4" t="s">
         <v>37</v>
       </c>
+      <c r="G20" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3">
@@ -1835,7 +1842,9 @@
       <c r="F21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="4"/>
+      <c r="G21" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3">
@@ -1856,7 +1865,9 @@
       <c r="F22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G22" s="4"/>
+      <c r="G22" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3">
@@ -1877,7 +1888,9 @@
       <c r="F23" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="4"/>
+      <c r="G23" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3">
@@ -1898,7 +1911,9 @@
       <c r="F24" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G24" s="4"/>
+      <c r="G24" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3">
@@ -1919,6 +1934,9 @@
       <c r="F25" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="G25" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3">
@@ -1979,6 +1997,9 @@
       <c r="F28" s="4" t="s">
         <v>45</v>
       </c>
+      <c r="G28" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="3">
@@ -1999,7 +2020,9 @@
       <c r="F29" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G29" s="4"/>
+      <c r="G29" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="3">
@@ -2020,7 +2043,9 @@
       <c r="F30" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G30" s="4"/>
+      <c r="G30" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="3">
@@ -2041,7 +2066,9 @@
       <c r="F31" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G31" s="4"/>
+      <c r="G31" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="3">
@@ -2062,6 +2089,9 @@
       <c r="F32" s="4" t="s">
         <v>47</v>
       </c>
+      <c r="G32" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="3">
@@ -2082,6 +2112,9 @@
       <c r="F33" s="4" t="s">
         <v>48</v>
       </c>
+      <c r="G33" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="3">
@@ -2148,7 +2181,9 @@
       <c r="F36" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G36" s="4"/>
+      <c r="G36" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="3">
@@ -2169,7 +2204,9 @@
       <c r="F37" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G37" s="4"/>
+      <c r="G37" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="3">
@@ -2190,6 +2227,9 @@
       <c r="F38" s="4" t="s">
         <v>56</v>
       </c>
+      <c r="G38" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="3">
@@ -2210,7 +2250,9 @@
       <c r="F39" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G39" s="4"/>
+      <c r="G39" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="3">
@@ -2231,7 +2273,9 @@
       <c r="F40" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G40" s="4"/>
+      <c r="G40" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="3">
@@ -2252,7 +2296,9 @@
       <c r="F41" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G41" s="4"/>
+      <c r="G41" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="3">
@@ -2296,7 +2342,9 @@
       <c r="F43" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G43" s="4"/>
+      <c r="G43" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="3">
@@ -2317,7 +2365,9 @@
       <c r="F44" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G44" s="4"/>
+      <c r="G44" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="3">
@@ -2338,7 +2388,9 @@
       <c r="F45" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G45" s="4"/>
+      <c r="G45" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="3">
@@ -2359,6 +2411,9 @@
       <c r="F46" s="4" t="s">
         <v>66</v>
       </c>
+      <c r="G46" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="3">
@@ -2379,7 +2434,9 @@
       <c r="F47" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G47" s="4"/>
+      <c r="G47" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="3">
@@ -2400,7 +2457,9 @@
       <c r="F48" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G48" s="4"/>
+      <c r="G48" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="3">
@@ -2421,7 +2480,9 @@
       <c r="F49" s="4">
         <v>45</v>
       </c>
-      <c r="G49" s="4"/>
+      <c r="G49" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="3">
@@ -2717,7 +2778,9 @@
       <c r="F63" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G63" s="4"/>
+      <c r="G63" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="3">
@@ -2903,6 +2966,9 @@
       <c r="F73" s="4" t="s">
         <v>95</v>
       </c>
+      <c r="G73" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="3">
@@ -2923,7 +2989,9 @@
       <c r="F74" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G74" s="4"/>
+      <c r="G74" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="3">
@@ -2944,7 +3012,9 @@
       <c r="F75" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G75" s="4"/>
+      <c r="G75" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="3">
@@ -2965,6 +3035,9 @@
       <c r="F76" s="4" t="s">
         <v>98</v>
       </c>
+      <c r="G76" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="3">
@@ -2985,7 +3058,9 @@
       <c r="F77" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G77" s="4"/>
+      <c r="G77" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="3">
@@ -3006,7 +3081,9 @@
       <c r="F78" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G78" s="4"/>
+      <c r="G78" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="3">
@@ -3027,7 +3104,9 @@
       <c r="F79" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G79" s="4"/>
+      <c r="G79" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="3">
@@ -3128,7 +3207,9 @@
       <c r="F84" s="4">
         <v>84</v>
       </c>
-      <c r="G84" s="4"/>
+      <c r="G84" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="3">
@@ -3149,6 +3230,9 @@
       <c r="F85" s="4" t="s">
         <v>105</v>
       </c>
+      <c r="G85" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="3">
@@ -3169,7 +3253,9 @@
       <c r="F86" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G86" s="4"/>
+      <c r="G86" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="3">
@@ -3190,7 +3276,9 @@
       <c r="F87" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G87" s="4"/>
+      <c r="G87" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="3">
@@ -3211,7 +3299,9 @@
       <c r="F88" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G88" s="4"/>
+      <c r="G88" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="3">
@@ -3255,6 +3345,9 @@
       <c r="F90" s="4" t="s">
         <v>112</v>
       </c>
+      <c r="G90" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="3">
@@ -3275,7 +3368,9 @@
       <c r="F91" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="G91" s="4"/>
+      <c r="G91" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="3">
@@ -3296,7 +3391,9 @@
       <c r="F92" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="G92" s="4"/>
+      <c r="G92" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="3">
@@ -3317,7 +3414,9 @@
       <c r="F93" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="G93" s="4"/>
+      <c r="G93" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="3">
@@ -3513,7 +3612,9 @@
       <c r="F104" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="G104" s="4"/>
+      <c r="G104" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="3">
@@ -3534,7 +3635,9 @@
       <c r="F105" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="G105" s="4"/>
+      <c r="G105" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="3">
@@ -3555,7 +3658,9 @@
       <c r="F106" s="4">
         <v>104</v>
       </c>
-      <c r="G106" s="4"/>
+      <c r="G106" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="3">
@@ -3576,7 +3681,9 @@
       <c r="F107" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="G107" s="4"/>
+      <c r="G107" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="3">
@@ -3668,6 +3775,9 @@
       <c r="F112" s="4" t="s">
         <v>135</v>
       </c>
+      <c r="G112" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="3">
@@ -3688,7 +3798,9 @@
       <c r="F113" s="4">
         <v>111</v>
       </c>
-      <c r="G113" s="4"/>
+      <c r="G113" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="3">
@@ -3709,7 +3821,9 @@
       <c r="F114" s="4">
         <v>111</v>
       </c>
-      <c r="G114" s="4"/>
+      <c r="G114" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="3">
@@ -3730,7 +3844,9 @@
       <c r="F115" s="4">
         <v>111</v>
       </c>
-      <c r="G115" s="4"/>
+      <c r="G115" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="3">
@@ -3751,7 +3867,9 @@
       <c r="F116" s="4">
         <v>111</v>
       </c>
-      <c r="G116" s="4"/>
+      <c r="G116" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="3">
@@ -3818,6 +3936,9 @@
       <c r="F119" s="4" t="s">
         <v>139</v>
       </c>
+      <c r="G119" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="3">
@@ -3838,7 +3959,9 @@
       <c r="F120" s="4">
         <v>118</v>
       </c>
-      <c r="G120" s="4"/>
+      <c r="G120" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="3">
@@ -3859,7 +3982,9 @@
       <c r="F121" s="4">
         <v>118</v>
       </c>
-      <c r="G121" s="4"/>
+      <c r="G121" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="3">
@@ -3880,7 +4005,9 @@
       <c r="F122" s="4">
         <v>118</v>
       </c>
-      <c r="G122" s="4"/>
+      <c r="G122" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="3">
@@ -4007,7 +4134,9 @@
       <c r="F129" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="G129" s="4"/>
+      <c r="G129" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="3">
@@ -4028,7 +4157,9 @@
       <c r="F130" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="G130" s="4"/>
+      <c r="G130" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="3">
@@ -4049,7 +4180,9 @@
       <c r="F131" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="G131" s="4"/>
+      <c r="G131" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="3">
@@ -4110,7 +4243,9 @@
       <c r="F134" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="G134" s="4"/>
+      <c r="G134" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="3">
@@ -4131,7 +4266,9 @@
       <c r="F135" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="G135" s="4"/>
+      <c r="G135" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="3">
@@ -4231,7 +4368,9 @@
       <c r="F140" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="G140" s="4"/>
+      <c r="G140" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="3">
@@ -4252,7 +4391,9 @@
       <c r="F141" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="G141" s="4"/>
+      <c r="G141" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="3">
@@ -4293,7 +4434,9 @@
       <c r="F143" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="G143" s="4"/>
+      <c r="G143" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="3">
@@ -4354,6 +4497,9 @@
       <c r="F146" s="4" t="s">
         <v>161</v>
       </c>
+      <c r="G146" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="3">
@@ -4374,6 +4520,9 @@
       <c r="F147" s="4" t="s">
         <v>161</v>
       </c>
+      <c r="G147" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="3">
@@ -4394,7 +4543,9 @@
       <c r="F148" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="G148" s="4"/>
+      <c r="G148" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="3">
@@ -4449,7 +4600,9 @@
       <c r="F151" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="G151" s="4"/>
+      <c r="G151" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="3">
@@ -4555,7 +4708,9 @@
       <c r="F156" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="G156" s="4"/>
+      <c r="G156" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="3">
@@ -4576,6 +4731,9 @@
       <c r="F157" s="4" t="s">
         <v>173</v>
       </c>
+      <c r="G157" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="3">
@@ -4596,6 +4754,9 @@
       <c r="F158" s="4" t="s">
         <v>174</v>
       </c>
+      <c r="G158" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="3">
@@ -4616,7 +4777,9 @@
       <c r="F159" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="G159" s="4"/>
+      <c r="G159" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="3">
@@ -4637,7 +4800,9 @@
       <c r="F160" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="G160" s="4"/>
+      <c r="G160" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="3">
@@ -4658,7 +4823,9 @@
       <c r="F161" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="G161" s="4"/>
+      <c r="G161" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="3">
@@ -4702,7 +4869,9 @@
       <c r="F163" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="G163" s="4"/>
+      <c r="G163" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="3">
@@ -4746,6 +4915,9 @@
       <c r="F165" s="4" t="s">
         <v>180</v>
       </c>
+      <c r="G165" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="3">
@@ -4766,7 +4938,9 @@
       <c r="F166" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="G166" s="4"/>
+      <c r="G166" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="3">
@@ -4787,7 +4961,9 @@
       <c r="F167" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="G167" s="4"/>
+      <c r="G167" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="3">
@@ -4808,7 +4984,9 @@
       <c r="F168" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="G168" s="4"/>
+      <c r="G168" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="3">
@@ -5023,6 +5201,9 @@
       <c r="F180" s="4" t="s">
         <v>197</v>
       </c>
+      <c r="G180" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="3">
@@ -5043,7 +5224,9 @@
       <c r="F181" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="G181" s="4"/>
+      <c r="G181" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="3">
@@ -5064,6 +5247,9 @@
       <c r="F182" s="4" t="s">
         <v>199</v>
       </c>
+      <c r="G182" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="3">
@@ -5084,7 +5270,9 @@
       <c r="F183" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="G183" s="4"/>
+      <c r="G183" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="3">
@@ -5183,7 +5371,9 @@
       <c r="F188" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="G188" s="4"/>
+      <c r="G188" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="3">
@@ -5204,7 +5394,9 @@
       <c r="F189" s="4">
         <v>187</v>
       </c>
-      <c r="G189" s="4"/>
+      <c r="G189" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" s="3">
@@ -5225,7 +5417,9 @@
       <c r="F190" s="4">
         <v>187</v>
       </c>
-      <c r="G190" s="4"/>
+      <c r="G190" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="3">
@@ -5525,7 +5719,9 @@
       <c r="F207" s="4">
         <v>205</v>
       </c>
-      <c r="G207" s="4"/>
+      <c r="G207" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="208" spans="1:7">
       <c r="A208" s="3">
@@ -5938,7 +6134,9 @@
       <c r="F230" s="4">
         <v>228</v>
       </c>
-      <c r="G230" s="4"/>
+      <c r="G230" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="231" spans="1:7">
       <c r="A231" s="3">
@@ -5959,7 +6157,9 @@
       <c r="F231" s="4">
         <v>228</v>
       </c>
-      <c r="G231" s="4"/>
+      <c r="G231" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="232" spans="1:7">
       <c r="A232" s="3">
@@ -5980,7 +6180,9 @@
       <c r="F232" s="4">
         <v>228</v>
       </c>
-      <c r="G232" s="4"/>
+      <c r="G232" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="233" spans="1:7">
       <c r="A233" s="3">
@@ -6001,7 +6203,9 @@
       <c r="F233" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="G233" s="4"/>
+      <c r="G233" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="234" spans="1:7">
       <c r="A234" s="3">
@@ -6193,7 +6397,9 @@
       <c r="F243" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="G243" s="4"/>
+      <c r="G243" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="244" spans="1:7">
       <c r="A244" s="3">
@@ -6214,7 +6420,9 @@
       <c r="F244" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="G244" s="4"/>
+      <c r="G244" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="245" spans="1:7">
       <c r="A245" s="3">
@@ -6235,7 +6443,9 @@
       <c r="F245" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="G245" s="4"/>
+      <c r="G245" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="246" spans="1:7">
       <c r="A246" s="3">
@@ -6256,7 +6466,9 @@
       <c r="F246" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="G246" s="4"/>
+      <c r="G246" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/coway/main/management/commands/Info.xlsx
+++ b/coway/main/management/commands/Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jomin-u/Desktop/simba5_COWAY/coway/main/management/commands/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C5102D-1371-3C4F-B363-F2755D777613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86AABFE-9DEB-FB4D-9F0A-93D484E47AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C282F8EB-9DBF-5443-912A-C0268FAF3406}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C282F8EB-9DBF-5443-912A-C0268FAF3406}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="305">
   <si>
     <t>latitude</t>
   </si>
@@ -576,9 +576,6 @@
   </si>
   <si>
     <t>162 164 168</t>
-  </si>
-  <si>
-    <t>156 162 163 168</t>
   </si>
   <si>
     <t>166 167 225</t>
@@ -992,6 +989,10 @@
   </si>
   <si>
     <t>coway/static/images/준비중.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>156 162 163 164 168</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1395,8 +1396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C4ADC8-1CA3-5646-8A52-7286C98257E4}">
   <dimension ref="A1:G246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
-      <selection activeCell="H238" sqref="H238"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="F164" sqref="F164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1444,7 +1445,7 @@
         <v>9</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1466,7 +1467,9 @@
       <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2">
@@ -1487,6 +1490,9 @@
       <c r="F4" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="G4" s="4" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">
@@ -1508,7 +1514,7 @@
         <v>15</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1530,6 +1536,9 @@
       <c r="F6" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="G6" s="4" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2">
@@ -1550,7 +1559,9 @@
       <c r="F7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
@@ -1571,7 +1582,9 @@
       <c r="F8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2">
@@ -1592,7 +1605,9 @@
       <c r="F9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
@@ -1614,7 +1629,7 @@
         <v>22</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1636,6 +1651,9 @@
       <c r="F11" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="G11" s="4" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
@@ -1656,7 +1674,9 @@
       <c r="F12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
@@ -1678,7 +1698,7 @@
         <v>27</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1700,6 +1720,9 @@
       <c r="F14" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="G14" s="4" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
@@ -1720,7 +1743,9 @@
       <c r="F15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2">
@@ -1741,7 +1766,9 @@
       <c r="F16" s="4">
         <v>16</v>
       </c>
-      <c r="G16" s="4"/>
+      <c r="G16" s="4" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2">
@@ -1797,7 +1824,7 @@
         <v>36</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1820,7 +1847,7 @@
         <v>37</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1843,7 +1870,7 @@
         <v>39</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1866,7 +1893,7 @@
         <v>39</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1889,7 +1916,7 @@
         <v>39</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1912,7 +1939,7 @@
         <v>39</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1935,7 +1962,7 @@
         <v>41</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1975,7 +2002,7 @@
         <v>44</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1998,7 +2025,7 @@
         <v>45</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2021,7 +2048,7 @@
         <v>46</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2044,7 +2071,7 @@
         <v>46</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2067,7 +2094,7 @@
         <v>46</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2090,7 +2117,7 @@
         <v>47</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2113,7 +2140,7 @@
         <v>48</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2136,7 +2163,7 @@
         <v>50</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2159,7 +2186,7 @@
         <v>53</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2182,7 +2209,7 @@
         <v>54</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2205,7 +2232,7 @@
         <v>55</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2228,7 +2255,7 @@
         <v>56</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2251,7 +2278,7 @@
         <v>57</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2274,7 +2301,7 @@
         <v>58</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2297,7 +2324,7 @@
         <v>59</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2320,7 +2347,7 @@
         <v>61</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2343,7 +2370,7 @@
         <v>63</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2366,7 +2393,7 @@
         <v>64</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2389,7 +2416,7 @@
         <v>65</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2412,7 +2439,7 @@
         <v>66</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2435,7 +2462,7 @@
         <v>67</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2458,7 +2485,7 @@
         <v>68</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2481,7 +2508,7 @@
         <v>45</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2504,7 +2531,7 @@
         <v>69</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2779,7 +2806,7 @@
         <v>84</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2802,7 +2829,7 @@
         <v>85</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2944,7 +2971,7 @@
         <v>94</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2967,7 +2994,7 @@
         <v>95</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2990,7 +3017,7 @@
         <v>96</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3013,7 +3040,7 @@
         <v>97</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3036,7 +3063,7 @@
         <v>98</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3059,7 +3086,7 @@
         <v>96</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3082,7 +3109,7 @@
         <v>96</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3105,7 +3132,7 @@
         <v>96</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3128,7 +3155,7 @@
         <v>100</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3185,7 +3212,7 @@
         <v>104</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3208,7 +3235,7 @@
         <v>84</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3231,7 +3258,7 @@
         <v>105</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3254,7 +3281,7 @@
         <v>106</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3277,7 +3304,7 @@
         <v>107</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3300,7 +3327,7 @@
         <v>108</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3323,7 +3350,7 @@
         <v>110</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3346,7 +3373,7 @@
         <v>112</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3369,7 +3396,7 @@
         <v>113</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -3392,7 +3419,7 @@
         <v>114</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3415,7 +3442,7 @@
         <v>115</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3438,7 +3465,7 @@
         <v>116</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -3613,7 +3640,7 @@
         <v>127</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -3636,7 +3663,7 @@
         <v>128</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -3659,7 +3686,7 @@
         <v>104</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -3682,7 +3709,7 @@
         <v>129</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -3753,7 +3780,7 @@
         <v>134</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -3776,7 +3803,7 @@
         <v>135</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3799,7 +3826,7 @@
         <v>111</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3822,7 +3849,7 @@
         <v>111</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3845,7 +3872,7 @@
         <v>111</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3868,7 +3895,7 @@
         <v>111</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3882,7 +3909,7 @@
         <v>133</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E117" s="4">
         <v>1</v>
@@ -3891,7 +3918,7 @@
         <v>136</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3914,7 +3941,7 @@
         <v>138</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3937,7 +3964,7 @@
         <v>139</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3960,7 +3987,7 @@
         <v>118</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3983,7 +4010,7 @@
         <v>118</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -4006,7 +4033,7 @@
         <v>118</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4112,7 +4139,7 @@
         <v>146</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -4135,7 +4162,7 @@
         <v>148</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -4158,7 +4185,7 @@
         <v>148</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -4181,7 +4208,7 @@
         <v>148</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -4203,6 +4230,9 @@
       <c r="F132" s="4" t="s">
         <v>149</v>
       </c>
+      <c r="G132" s="4" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="3">
@@ -4223,6 +4253,9 @@
       <c r="F133" s="4" t="s">
         <v>150</v>
       </c>
+      <c r="G133" s="4" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="3">
@@ -4244,7 +4277,7 @@
         <v>148</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -4267,7 +4300,7 @@
         <v>148</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -4290,7 +4323,7 @@
         <v>151</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -4346,7 +4379,7 @@
         <v>156</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -4369,7 +4402,7 @@
         <v>157</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -4392,7 +4425,7 @@
         <v>157</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -4414,6 +4447,9 @@
       <c r="F142" s="4" t="s">
         <v>158</v>
       </c>
+      <c r="G142" s="4" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="3">
@@ -4435,7 +4471,7 @@
         <v>157</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -4457,6 +4493,9 @@
       <c r="F144" s="4" t="s">
         <v>159</v>
       </c>
+      <c r="G144" s="4" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="3">
@@ -4477,6 +4516,9 @@
       <c r="F145" s="4" t="s">
         <v>160</v>
       </c>
+      <c r="G145" s="4" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="3">
@@ -4498,7 +4540,7 @@
         <v>161</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -4521,7 +4563,7 @@
         <v>161</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -4544,7 +4586,7 @@
         <v>162</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -4601,7 +4643,7 @@
         <v>166</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -4624,7 +4666,7 @@
         <v>167</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -4663,7 +4705,7 @@
         <v>169</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -4677,7 +4719,7 @@
         <v>170</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E155" s="4">
         <v>1</v>
@@ -4686,7 +4728,7 @@
         <v>171</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -4709,7 +4751,7 @@
         <v>172</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -4732,7 +4774,7 @@
         <v>173</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4755,7 +4797,7 @@
         <v>174</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4778,7 +4820,7 @@
         <v>172</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4801,7 +4843,7 @@
         <v>172</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4824,7 +4866,7 @@
         <v>172</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4838,7 +4880,7 @@
         <v>170</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E162" s="4">
         <v>1</v>
@@ -4847,7 +4889,7 @@
         <v>175</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4870,7 +4912,7 @@
         <v>177</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4893,7 +4935,7 @@
         <v>179</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4913,10 +4955,10 @@
         <v>1</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>180</v>
+        <v>304</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4936,10 +4978,10 @@
         <v>1</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4959,10 +5001,10 @@
         <v>1</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4982,10 +5024,10 @@
         <v>1</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -5001,7 +5043,7 @@
         <v>0</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G169" s="4"/>
     </row>
@@ -5018,7 +5060,7 @@
         <v>0</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G170" s="4"/>
     </row>
@@ -5035,7 +5077,7 @@
         <v>0</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G171" s="4"/>
     </row>
@@ -5052,7 +5094,7 @@
         <v>0</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G172" s="4"/>
     </row>
@@ -5069,7 +5111,7 @@
         <v>0</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -5085,7 +5127,7 @@
         <v>0</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G174" s="4"/>
     </row>
@@ -5102,7 +5144,7 @@
         <v>0</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G175" s="4"/>
     </row>
@@ -5114,14 +5156,14 @@
         <v>126.999785</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D176" s="4"/>
       <c r="E176" s="4">
         <v>0</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G176" s="4"/>
     </row>
@@ -5138,7 +5180,7 @@
         <v>0</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G177" s="4"/>
     </row>
@@ -5155,7 +5197,7 @@
         <v>0</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G178" s="4"/>
     </row>
@@ -5167,7 +5209,7 @@
         <v>126.999437</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D179" s="4" t="s">
         <v>8</v>
@@ -5176,10 +5218,10 @@
         <v>1</v>
       </c>
       <c r="F179" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -5190,7 +5232,7 @@
         <v>126.999488</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D180" s="4" t="s">
         <v>10</v>
@@ -5199,10 +5241,10 @@
         <v>1</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -5213,7 +5255,7 @@
         <v>126.999488</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D181" s="4" t="s">
         <v>12</v>
@@ -5222,10 +5264,10 @@
         <v>1</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -5236,7 +5278,7 @@
         <v>126.999488</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D182" s="4" t="s">
         <v>16</v>
@@ -5245,10 +5287,10 @@
         <v>1</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -5259,7 +5301,7 @@
         <v>126.999488</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D183" s="4" t="s">
         <v>18</v>
@@ -5268,10 +5310,10 @@
         <v>1</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -5282,7 +5324,7 @@
         <v>126.999788</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D184" s="4" t="s">
         <v>14</v>
@@ -5291,10 +5333,10 @@
         <v>1</v>
       </c>
       <c r="F184" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -5310,7 +5352,7 @@
         <v>0</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -5326,7 +5368,7 @@
         <v>0</v>
       </c>
       <c r="F186" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -5337,19 +5379,19 @@
         <v>127.000034</v>
       </c>
       <c r="C187" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="E187" s="4">
+        <v>1</v>
+      </c>
+      <c r="F187" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="D187" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="E187" s="4">
-        <v>1</v>
-      </c>
-      <c r="F187" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="G187" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -5360,7 +5402,7 @@
         <v>127.000277</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D188" s="4" t="s">
         <v>10</v>
@@ -5369,10 +5411,10 @@
         <v>1</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -5383,7 +5425,7 @@
         <v>127.000277</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D189" s="4" t="s">
         <v>12</v>
@@ -5395,7 +5437,7 @@
         <v>187</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -5406,7 +5448,7 @@
         <v>127.000277</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D190" s="4" t="s">
         <v>16</v>
@@ -5418,7 +5460,7 @@
         <v>187</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -5434,7 +5476,7 @@
         <v>0</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G191" s="4"/>
     </row>
@@ -5451,7 +5493,7 @@
         <v>0</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -5467,7 +5509,7 @@
         <v>0</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G193" s="4"/>
     </row>
@@ -5479,7 +5521,7 @@
         <v>126.999751</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D194" s="4" t="s">
         <v>8</v>
@@ -5488,10 +5530,10 @@
         <v>1</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G194" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -5507,7 +5549,7 @@
         <v>0</v>
       </c>
       <c r="F195" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G195" s="4"/>
     </row>
@@ -5524,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G196" s="4"/>
     </row>
@@ -5541,7 +5583,7 @@
         <v>0</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G197" s="4"/>
     </row>
@@ -5558,7 +5600,7 @@
         <v>0</v>
       </c>
       <c r="F198" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G198" s="4"/>
     </row>
@@ -5570,14 +5612,14 @@
         <v>126.999386</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D199" s="4"/>
       <c r="E199" s="4">
         <v>0</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G199" s="4"/>
     </row>
@@ -5594,7 +5636,7 @@
         <v>0</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G200" s="4"/>
     </row>
@@ -5611,7 +5653,7 @@
         <v>0</v>
       </c>
       <c r="F201" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G201" s="4"/>
     </row>
@@ -5628,7 +5670,7 @@
         <v>0</v>
       </c>
       <c r="F202" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G202" s="4"/>
     </row>
@@ -5645,7 +5687,7 @@
         <v>0</v>
       </c>
       <c r="F203" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G203" s="4"/>
     </row>
@@ -5662,7 +5704,7 @@
         <v>0</v>
       </c>
       <c r="F204" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G204" s="4"/>
     </row>
@@ -5679,7 +5721,7 @@
         <v>0</v>
       </c>
       <c r="F205" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G205" s="4"/>
     </row>
@@ -5696,7 +5738,7 @@
         <v>0</v>
       </c>
       <c r="F206" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G206" s="4"/>
     </row>
@@ -5708,10 +5750,10 @@
         <v>126.99556</v>
       </c>
       <c r="C207" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D207" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="D207" s="4" t="s">
-        <v>225</v>
       </c>
       <c r="E207" s="4">
         <v>1</v>
@@ -5720,7 +5762,7 @@
         <v>205</v>
       </c>
       <c r="G207" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -5736,7 +5778,7 @@
         <v>0</v>
       </c>
       <c r="F208" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G208" s="4"/>
     </row>
@@ -5753,7 +5795,7 @@
         <v>0</v>
       </c>
       <c r="F209" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G209" s="4"/>
     </row>
@@ -5770,7 +5812,7 @@
         <v>0</v>
       </c>
       <c r="F210" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G210" s="4"/>
     </row>
@@ -5787,7 +5829,7 @@
         <v>0</v>
       </c>
       <c r="F211" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G211" s="4"/>
     </row>
@@ -5804,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F212" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G212" s="4"/>
     </row>
@@ -5821,7 +5863,7 @@
         <v>0</v>
       </c>
       <c r="F213" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G213" s="4"/>
     </row>
@@ -5838,7 +5880,7 @@
         <v>0</v>
       </c>
       <c r="F214" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G214" s="4"/>
     </row>
@@ -5855,7 +5897,7 @@
         <v>0</v>
       </c>
       <c r="F215" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G215" s="4"/>
     </row>
@@ -5872,7 +5914,7 @@
         <v>0</v>
       </c>
       <c r="F216" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G216" s="4"/>
     </row>
@@ -5889,7 +5931,7 @@
         <v>0</v>
       </c>
       <c r="F217" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G217" s="4"/>
     </row>
@@ -5906,7 +5948,7 @@
         <v>0</v>
       </c>
       <c r="F218" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G218" s="4"/>
     </row>
@@ -5923,7 +5965,7 @@
         <v>0</v>
       </c>
       <c r="F219" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G219" s="4"/>
     </row>
@@ -5940,7 +5982,7 @@
         <v>0</v>
       </c>
       <c r="F220" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G220" s="4"/>
     </row>
@@ -5957,7 +5999,7 @@
         <v>0</v>
       </c>
       <c r="F221" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G221" s="4"/>
     </row>
@@ -5974,7 +6016,7 @@
         <v>0</v>
       </c>
       <c r="F222" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G222" s="4"/>
     </row>
@@ -5991,7 +6033,7 @@
         <v>0</v>
       </c>
       <c r="F223" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G223" s="4"/>
     </row>
@@ -6008,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="F224" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G224" s="4"/>
     </row>
@@ -6025,7 +6067,7 @@
         <v>0</v>
       </c>
       <c r="F225" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G225" s="4"/>
     </row>
@@ -6040,16 +6082,16 @@
         <v>178</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E226" s="4">
         <v>1</v>
       </c>
       <c r="F226" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G226" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -6060,19 +6102,19 @@
         <v>126.999844</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E227" s="4">
         <v>1</v>
       </c>
       <c r="F227" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G227" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -6088,7 +6130,7 @@
         <v>0</v>
       </c>
       <c r="F228" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G228" s="4"/>
     </row>
@@ -6100,19 +6142,19 @@
         <v>126.99946199999999</v>
       </c>
       <c r="C229" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D229" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="D229" s="4" t="s">
+      <c r="E229" s="4">
+        <v>1</v>
+      </c>
+      <c r="F229" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="E229" s="4">
-        <v>1</v>
-      </c>
-      <c r="F229" s="4" t="s">
-        <v>249</v>
-      </c>
       <c r="G229" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -6123,7 +6165,7 @@
         <v>126.999593</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D230" s="4" t="s">
         <v>10</v>
@@ -6135,7 +6177,7 @@
         <v>228</v>
       </c>
       <c r="G230" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -6146,7 +6188,7 @@
         <v>126.999593</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D231" s="4" t="s">
         <v>12</v>
@@ -6158,7 +6200,7 @@
         <v>228</v>
       </c>
       <c r="G231" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -6169,7 +6211,7 @@
         <v>126.999593</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D232" s="4" t="s">
         <v>16</v>
@@ -6181,7 +6223,7 @@
         <v>228</v>
       </c>
       <c r="G232" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -6195,16 +6237,16 @@
         <v>43</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E233" s="4">
         <v>1</v>
       </c>
       <c r="F233" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G233" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -6218,16 +6260,16 @@
         <v>43</v>
       </c>
       <c r="D234" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="E234" s="4">
+        <v>1</v>
+      </c>
+      <c r="F234" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="E234" s="4">
-        <v>1</v>
-      </c>
-      <c r="F234" s="4" t="s">
-        <v>252</v>
-      </c>
       <c r="G234" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -6241,16 +6283,16 @@
         <v>35</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E235" s="4">
         <v>1</v>
       </c>
       <c r="F235" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G235" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -6266,7 +6308,7 @@
         <v>0</v>
       </c>
       <c r="F236" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G236" s="4"/>
     </row>
@@ -6283,7 +6325,7 @@
         <v>0</v>
       </c>
       <c r="F237" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G237" s="4"/>
     </row>
@@ -6300,7 +6342,7 @@
         <v>0</v>
       </c>
       <c r="F238" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G238" s="4"/>
     </row>
@@ -6317,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="F239" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G239" s="4"/>
     </row>
@@ -6334,7 +6376,7 @@
         <v>0</v>
       </c>
       <c r="F240" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G240" s="4"/>
     </row>
@@ -6346,7 +6388,7 @@
         <v>126.999813</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D241" s="4" t="s">
         <v>40</v>
@@ -6355,7 +6397,10 @@
         <v>1</v>
       </c>
       <c r="F241" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
+      </c>
+      <c r="G241" s="4" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -6366,7 +6411,7 @@
         <v>126.999813</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D242" s="4" t="s">
         <v>10</v>
@@ -6375,7 +6420,10 @@
         <v>1</v>
       </c>
       <c r="F242" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
+      </c>
+      <c r="G242" s="4" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -6386,7 +6434,7 @@
         <v>126.999813</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D243" s="4" t="s">
         <v>12</v>
@@ -6395,10 +6443,10 @@
         <v>1</v>
       </c>
       <c r="F243" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G243" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -6409,7 +6457,7 @@
         <v>126.999813</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D244" s="4" t="s">
         <v>16</v>
@@ -6418,10 +6466,10 @@
         <v>1</v>
       </c>
       <c r="F244" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G244" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -6432,7 +6480,7 @@
         <v>126.999813</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D245" s="4" t="s">
         <v>18</v>
@@ -6441,10 +6489,10 @@
         <v>1</v>
       </c>
       <c r="F245" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G245" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -6455,7 +6503,7 @@
         <v>126.999813</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D246" s="4" t="s">
         <v>19</v>
@@ -6464,10 +6512,10 @@
         <v>1</v>
       </c>
       <c r="F246" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G246" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>

--- a/coway/main/management/commands/Info.xlsx
+++ b/coway/main/management/commands/Info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jomin-u/Desktop/simba5_COWAY/coway/main/management/commands/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86AABFE-9DEB-FB4D-9F0A-93D484E47AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5852D006-1AC5-6E43-8992-9962FE6FCD83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C282F8EB-9DBF-5443-912A-C0268FAF3406}"/>
   </bookViews>
@@ -539,9 +539,6 @@
     <t>149 152</t>
   </si>
   <si>
-    <t>152 154</t>
-  </si>
-  <si>
     <t>141 143 150 151</t>
   </si>
   <si>
@@ -551,9 +548,6 @@
     <t>정보문화관P</t>
   </si>
   <si>
-    <t>151 157</t>
-  </si>
-  <si>
     <t>156 157</t>
   </si>
   <si>
@@ -573,9 +567,6 @@
   </si>
   <si>
     <t>정보문화관Q</t>
-  </si>
-  <si>
-    <t>162 164 168</t>
   </si>
   <si>
     <t>166 167 225</t>
@@ -993,6 +984,18 @@
   </si>
   <si>
     <t>156 162 163 164 168</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>151 157 168 170</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>152 154 169 170</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>162 164 167</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1396,8 +1399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C4ADC8-1CA3-5646-8A52-7286C98257E4}">
   <dimension ref="A1:G246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="F164" sqref="F164"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="E155" sqref="E155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1445,7 +1448,7 @@
         <v>9</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1468,7 +1471,7 @@
         <v>11</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1491,7 +1494,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1514,7 +1517,7 @@
         <v>15</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1537,7 +1540,7 @@
         <v>17</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1560,7 +1563,7 @@
         <v>13</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1583,7 +1586,7 @@
         <v>13</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1606,7 +1609,7 @@
         <v>13</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1629,7 +1632,7 @@
         <v>22</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1652,7 +1655,7 @@
         <v>24</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1675,7 +1678,7 @@
         <v>13</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1698,7 +1701,7 @@
         <v>27</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1721,7 +1724,7 @@
         <v>29</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1744,7 +1747,7 @@
         <v>13</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1767,7 +1770,7 @@
         <v>16</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1824,7 +1827,7 @@
         <v>36</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1847,7 +1850,7 @@
         <v>37</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1870,7 +1873,7 @@
         <v>39</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1893,7 +1896,7 @@
         <v>39</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1916,7 +1919,7 @@
         <v>39</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1939,7 +1942,7 @@
         <v>39</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1962,7 +1965,7 @@
         <v>41</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2002,7 +2005,7 @@
         <v>44</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2025,7 +2028,7 @@
         <v>45</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2048,7 +2051,7 @@
         <v>46</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2071,7 +2074,7 @@
         <v>46</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2094,7 +2097,7 @@
         <v>46</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2117,7 +2120,7 @@
         <v>47</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2140,7 +2143,7 @@
         <v>48</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2163,7 +2166,7 @@
         <v>50</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2186,7 +2189,7 @@
         <v>53</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2209,7 +2212,7 @@
         <v>54</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2232,7 +2235,7 @@
         <v>55</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2255,7 +2258,7 @@
         <v>56</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2278,7 +2281,7 @@
         <v>57</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2301,7 +2304,7 @@
         <v>58</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2324,7 +2327,7 @@
         <v>59</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2347,7 +2350,7 @@
         <v>61</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2370,7 +2373,7 @@
         <v>63</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2393,7 +2396,7 @@
         <v>64</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2416,7 +2419,7 @@
         <v>65</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2439,7 +2442,7 @@
         <v>66</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2462,7 +2465,7 @@
         <v>67</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2485,7 +2488,7 @@
         <v>68</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2508,7 +2511,7 @@
         <v>45</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2531,7 +2534,7 @@
         <v>69</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2806,7 +2809,7 @@
         <v>84</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2829,7 +2832,7 @@
         <v>85</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2971,7 +2974,7 @@
         <v>94</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2994,7 +2997,7 @@
         <v>95</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3017,7 +3020,7 @@
         <v>96</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3040,7 +3043,7 @@
         <v>97</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3063,7 +3066,7 @@
         <v>98</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3086,7 +3089,7 @@
         <v>96</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3109,7 +3112,7 @@
         <v>96</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3132,7 +3135,7 @@
         <v>96</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3155,7 +3158,7 @@
         <v>100</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3212,7 +3215,7 @@
         <v>104</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3235,7 +3238,7 @@
         <v>84</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3258,7 +3261,7 @@
         <v>105</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3281,7 +3284,7 @@
         <v>106</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3304,7 +3307,7 @@
         <v>107</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3327,7 +3330,7 @@
         <v>108</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3350,7 +3353,7 @@
         <v>110</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3373,7 +3376,7 @@
         <v>112</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3396,7 +3399,7 @@
         <v>113</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -3419,7 +3422,7 @@
         <v>114</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3442,7 +3445,7 @@
         <v>115</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3465,7 +3468,7 @@
         <v>116</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -3640,7 +3643,7 @@
         <v>127</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -3663,7 +3666,7 @@
         <v>128</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -3686,7 +3689,7 @@
         <v>104</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -3709,7 +3712,7 @@
         <v>129</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -3780,7 +3783,7 @@
         <v>134</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -3803,7 +3806,7 @@
         <v>135</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3826,7 +3829,7 @@
         <v>111</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3849,7 +3852,7 @@
         <v>111</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3872,7 +3875,7 @@
         <v>111</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3895,7 +3898,7 @@
         <v>111</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3909,7 +3912,7 @@
         <v>133</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E117" s="4">
         <v>1</v>
@@ -3918,7 +3921,7 @@
         <v>136</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3941,7 +3944,7 @@
         <v>138</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3964,7 +3967,7 @@
         <v>139</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3987,7 +3990,7 @@
         <v>118</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -4010,7 +4013,7 @@
         <v>118</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -4033,7 +4036,7 @@
         <v>118</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4139,7 +4142,7 @@
         <v>146</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -4162,7 +4165,7 @@
         <v>148</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -4185,7 +4188,7 @@
         <v>148</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -4208,7 +4211,7 @@
         <v>148</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -4231,7 +4234,7 @@
         <v>149</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -4254,7 +4257,7 @@
         <v>150</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -4277,7 +4280,7 @@
         <v>148</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -4300,7 +4303,7 @@
         <v>148</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -4323,7 +4326,7 @@
         <v>151</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -4379,7 +4382,7 @@
         <v>156</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -4402,7 +4405,7 @@
         <v>157</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -4425,7 +4428,7 @@
         <v>157</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -4448,7 +4451,7 @@
         <v>158</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -4471,7 +4474,7 @@
         <v>157</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -4494,7 +4497,7 @@
         <v>159</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -4517,7 +4520,7 @@
         <v>160</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -4540,7 +4543,7 @@
         <v>161</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -4563,7 +4566,7 @@
         <v>161</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -4586,7 +4589,7 @@
         <v>162</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -4643,7 +4646,7 @@
         <v>166</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -4663,10 +4666,10 @@
         <v>1</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>167</v>
+        <v>303</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -4682,7 +4685,7 @@
         <v>0</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -4702,10 +4705,10 @@
         <v>1</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -4716,19 +4719,19 @@
         <v>126.998591</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E155" s="4">
         <v>1</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>171</v>
+        <v>302</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -4739,7 +4742,7 @@
         <v>126.998588</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D156" s="4" t="s">
         <v>10</v>
@@ -4748,10 +4751,10 @@
         <v>1</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -4762,7 +4765,7 @@
         <v>126.998588</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D157" s="4" t="s">
         <v>12</v>
@@ -4771,10 +4774,10 @@
         <v>1</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4785,7 +4788,7 @@
         <v>126.998588</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D158" s="4" t="s">
         <v>16</v>
@@ -4794,10 +4797,10 @@
         <v>1</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4808,7 +4811,7 @@
         <v>126.998588</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D159" s="4" t="s">
         <v>18</v>
@@ -4817,10 +4820,10 @@
         <v>1</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4831,7 +4834,7 @@
         <v>126.998588</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D160" s="4" t="s">
         <v>19</v>
@@ -4840,10 +4843,10 @@
         <v>1</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4854,7 +4857,7 @@
         <v>126.998588</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D161" s="4" t="s">
         <v>20</v>
@@ -4863,10 +4866,10 @@
         <v>1</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4877,19 +4880,19 @@
         <v>126.998531</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E162" s="4">
         <v>1</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4900,19 +4903,19 @@
         <v>126.998464</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E163" s="4">
         <v>1</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4923,7 +4926,7 @@
         <v>126.99844899999999</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D164" s="4" t="s">
         <v>14</v>
@@ -4932,10 +4935,10 @@
         <v>1</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>179</v>
+        <v>304</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4946,7 +4949,7 @@
         <v>126.99847800000001</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D165" s="4" t="s">
         <v>60</v>
@@ -4955,10 +4958,10 @@
         <v>1</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4969,7 +4972,7 @@
         <v>126.998328</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D166" s="4" t="s">
         <v>10</v>
@@ -4978,10 +4981,10 @@
         <v>1</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4992,7 +4995,7 @@
         <v>126.998328</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D167" s="4" t="s">
         <v>12</v>
@@ -5001,10 +5004,10 @@
         <v>1</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -5015,7 +5018,7 @@
         <v>126.998328</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D168" s="4" t="s">
         <v>16</v>
@@ -5024,10 +5027,10 @@
         <v>1</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -5043,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G169" s="4"/>
     </row>
@@ -5060,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G170" s="4"/>
     </row>
@@ -5077,7 +5080,7 @@
         <v>0</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G171" s="4"/>
     </row>
@@ -5094,7 +5097,7 @@
         <v>0</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G172" s="4"/>
     </row>
@@ -5111,7 +5114,7 @@
         <v>0</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -5127,7 +5130,7 @@
         <v>0</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G174" s="4"/>
     </row>
@@ -5144,7 +5147,7 @@
         <v>0</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G175" s="4"/>
     </row>
@@ -5156,14 +5159,14 @@
         <v>126.999785</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D176" s="4"/>
       <c r="E176" s="4">
         <v>0</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G176" s="4"/>
     </row>
@@ -5180,7 +5183,7 @@
         <v>0</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G177" s="4"/>
     </row>
@@ -5197,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G178" s="4"/>
     </row>
@@ -5209,7 +5212,7 @@
         <v>126.999437</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D179" s="4" t="s">
         <v>8</v>
@@ -5218,10 +5221,10 @@
         <v>1</v>
       </c>
       <c r="F179" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -5232,7 +5235,7 @@
         <v>126.999488</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D180" s="4" t="s">
         <v>10</v>
@@ -5241,10 +5244,10 @@
         <v>1</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -5255,7 +5258,7 @@
         <v>126.999488</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D181" s="4" t="s">
         <v>12</v>
@@ -5264,10 +5267,10 @@
         <v>1</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -5278,7 +5281,7 @@
         <v>126.999488</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D182" s="4" t="s">
         <v>16</v>
@@ -5287,10 +5290,10 @@
         <v>1</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -5301,7 +5304,7 @@
         <v>126.999488</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D183" s="4" t="s">
         <v>18</v>
@@ -5310,10 +5313,10 @@
         <v>1</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -5324,7 +5327,7 @@
         <v>126.999788</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D184" s="4" t="s">
         <v>14</v>
@@ -5333,10 +5336,10 @@
         <v>1</v>
       </c>
       <c r="F184" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -5352,7 +5355,7 @@
         <v>0</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -5368,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="F186" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -5379,19 +5382,19 @@
         <v>127.000034</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E187" s="4">
         <v>1</v>
       </c>
       <c r="F187" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -5402,7 +5405,7 @@
         <v>127.000277</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D188" s="4" t="s">
         <v>10</v>
@@ -5411,10 +5414,10 @@
         <v>1</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -5425,7 +5428,7 @@
         <v>127.000277</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D189" s="4" t="s">
         <v>12</v>
@@ -5437,7 +5440,7 @@
         <v>187</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -5448,7 +5451,7 @@
         <v>127.000277</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D190" s="4" t="s">
         <v>16</v>
@@ -5460,7 +5463,7 @@
         <v>187</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -5476,7 +5479,7 @@
         <v>0</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G191" s="4"/>
     </row>
@@ -5493,7 +5496,7 @@
         <v>0</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -5509,7 +5512,7 @@
         <v>0</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G193" s="4"/>
     </row>
@@ -5521,7 +5524,7 @@
         <v>126.999751</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D194" s="4" t="s">
         <v>8</v>
@@ -5530,10 +5533,10 @@
         <v>1</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G194" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -5549,7 +5552,7 @@
         <v>0</v>
       </c>
       <c r="F195" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G195" s="4"/>
     </row>
@@ -5566,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G196" s="4"/>
     </row>
@@ -5583,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G197" s="4"/>
     </row>
@@ -5600,7 +5603,7 @@
         <v>0</v>
       </c>
       <c r="F198" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G198" s="4"/>
     </row>
@@ -5612,14 +5615,14 @@
         <v>126.999386</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D199" s="4"/>
       <c r="E199" s="4">
         <v>0</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G199" s="4"/>
     </row>
@@ -5636,7 +5639,7 @@
         <v>0</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G200" s="4"/>
     </row>
@@ -5653,7 +5656,7 @@
         <v>0</v>
       </c>
       <c r="F201" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G201" s="4"/>
     </row>
@@ -5670,7 +5673,7 @@
         <v>0</v>
       </c>
       <c r="F202" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G202" s="4"/>
     </row>
@@ -5687,7 +5690,7 @@
         <v>0</v>
       </c>
       <c r="F203" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G203" s="4"/>
     </row>
@@ -5704,7 +5707,7 @@
         <v>0</v>
       </c>
       <c r="F204" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G204" s="4"/>
     </row>
@@ -5721,7 +5724,7 @@
         <v>0</v>
       </c>
       <c r="F205" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G205" s="4"/>
     </row>
@@ -5738,7 +5741,7 @@
         <v>0</v>
       </c>
       <c r="F206" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G206" s="4"/>
     </row>
@@ -5750,10 +5753,10 @@
         <v>126.99556</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E207" s="4">
         <v>1</v>
@@ -5762,7 +5765,7 @@
         <v>205</v>
       </c>
       <c r="G207" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -5778,7 +5781,7 @@
         <v>0</v>
       </c>
       <c r="F208" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G208" s="4"/>
     </row>
@@ -5795,7 +5798,7 @@
         <v>0</v>
       </c>
       <c r="F209" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G209" s="4"/>
     </row>
@@ -5812,7 +5815,7 @@
         <v>0</v>
       </c>
       <c r="F210" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G210" s="4"/>
     </row>
@@ -5829,7 +5832,7 @@
         <v>0</v>
       </c>
       <c r="F211" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G211" s="4"/>
     </row>
@@ -5846,7 +5849,7 @@
         <v>0</v>
       </c>
       <c r="F212" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G212" s="4"/>
     </row>
@@ -5863,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F213" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G213" s="4"/>
     </row>
@@ -5880,7 +5883,7 @@
         <v>0</v>
       </c>
       <c r="F214" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G214" s="4"/>
     </row>
@@ -5897,7 +5900,7 @@
         <v>0</v>
       </c>
       <c r="F215" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G215" s="4"/>
     </row>
@@ -5914,7 +5917,7 @@
         <v>0</v>
       </c>
       <c r="F216" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G216" s="4"/>
     </row>
@@ -5931,7 +5934,7 @@
         <v>0</v>
       </c>
       <c r="F217" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G217" s="4"/>
     </row>
@@ -5948,7 +5951,7 @@
         <v>0</v>
       </c>
       <c r="F218" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G218" s="4"/>
     </row>
@@ -5965,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="F219" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G219" s="4"/>
     </row>
@@ -5982,7 +5985,7 @@
         <v>0</v>
       </c>
       <c r="F220" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G220" s="4"/>
     </row>
@@ -5999,7 +6002,7 @@
         <v>0</v>
       </c>
       <c r="F221" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G221" s="4"/>
     </row>
@@ -6016,7 +6019,7 @@
         <v>0</v>
       </c>
       <c r="F222" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G222" s="4"/>
     </row>
@@ -6033,7 +6036,7 @@
         <v>0</v>
       </c>
       <c r="F223" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G223" s="4"/>
     </row>
@@ -6050,7 +6053,7 @@
         <v>0</v>
       </c>
       <c r="F224" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G224" s="4"/>
     </row>
@@ -6067,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="F225" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G225" s="4"/>
     </row>
@@ -6079,19 +6082,19 @@
         <v>126.998277</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E226" s="4">
         <v>1</v>
       </c>
       <c r="F226" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G226" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -6102,19 +6105,19 @@
         <v>126.999844</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E227" s="4">
         <v>1</v>
       </c>
       <c r="F227" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G227" s="4" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -6130,7 +6133,7 @@
         <v>0</v>
       </c>
       <c r="F228" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G228" s="4"/>
     </row>
@@ -6142,19 +6145,19 @@
         <v>126.99946199999999</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E229" s="4">
         <v>1</v>
       </c>
       <c r="F229" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G229" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -6165,7 +6168,7 @@
         <v>126.999593</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D230" s="4" t="s">
         <v>10</v>
@@ -6177,7 +6180,7 @@
         <v>228</v>
       </c>
       <c r="G230" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -6188,7 +6191,7 @@
         <v>126.999593</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D231" s="4" t="s">
         <v>12</v>
@@ -6200,7 +6203,7 @@
         <v>228</v>
       </c>
       <c r="G231" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -6211,7 +6214,7 @@
         <v>126.999593</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D232" s="4" t="s">
         <v>16</v>
@@ -6223,7 +6226,7 @@
         <v>228</v>
       </c>
       <c r="G232" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -6237,16 +6240,16 @@
         <v>43</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E233" s="4">
         <v>1</v>
       </c>
       <c r="F233" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G233" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -6260,16 +6263,16 @@
         <v>43</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E234" s="4">
         <v>1</v>
       </c>
       <c r="F234" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G234" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -6283,16 +6286,16 @@
         <v>35</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E235" s="4">
         <v>1</v>
       </c>
       <c r="F235" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G235" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -6308,7 +6311,7 @@
         <v>0</v>
       </c>
       <c r="F236" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G236" s="4"/>
     </row>
@@ -6325,7 +6328,7 @@
         <v>0</v>
       </c>
       <c r="F237" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G237" s="4"/>
     </row>
@@ -6342,7 +6345,7 @@
         <v>0</v>
       </c>
       <c r="F238" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G238" s="4"/>
     </row>
@@ -6359,7 +6362,7 @@
         <v>0</v>
       </c>
       <c r="F239" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G239" s="4"/>
     </row>
@@ -6376,7 +6379,7 @@
         <v>0</v>
       </c>
       <c r="F240" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G240" s="4"/>
     </row>
@@ -6388,7 +6391,7 @@
         <v>126.999813</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D241" s="4" t="s">
         <v>40</v>
@@ -6397,10 +6400,10 @@
         <v>1</v>
       </c>
       <c r="F241" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G241" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -6411,7 +6414,7 @@
         <v>126.999813</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D242" s="4" t="s">
         <v>10</v>
@@ -6420,10 +6423,10 @@
         <v>1</v>
       </c>
       <c r="F242" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G242" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -6434,7 +6437,7 @@
         <v>126.999813</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D243" s="4" t="s">
         <v>12</v>
@@ -6443,10 +6446,10 @@
         <v>1</v>
       </c>
       <c r="F243" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G243" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -6457,7 +6460,7 @@
         <v>126.999813</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D244" s="4" t="s">
         <v>16</v>
@@ -6466,10 +6469,10 @@
         <v>1</v>
       </c>
       <c r="F244" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G244" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -6480,7 +6483,7 @@
         <v>126.999813</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D245" s="4" t="s">
         <v>18</v>
@@ -6489,10 +6492,10 @@
         <v>1</v>
       </c>
       <c r="F245" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G245" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -6503,7 +6506,7 @@
         <v>126.999813</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D246" s="4" t="s">
         <v>19</v>
@@ -6512,10 +6515,10 @@
         <v>1</v>
       </c>
       <c r="F246" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G246" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/coway/main/management/commands/Info.xlsx
+++ b/coway/main/management/commands/Info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jomin-u/Desktop/simba5_COWAY/coway/main/management/commands/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5852D006-1AC5-6E43-8992-9962FE6FCD83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83797631-4C94-DE4A-BEAE-6DBA783F701A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C282F8EB-9DBF-5443-912A-C0268FAF3406}"/>
   </bookViews>
@@ -506,9 +506,6 @@
     <t>통로</t>
   </si>
   <si>
-    <t>9 12 137 143 144 145 156</t>
-  </si>
-  <si>
     <t>141 143 144</t>
   </si>
   <si>
@@ -996,6 +993,10 @@
   </si>
   <si>
     <t>162 164 167</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9 12 137 143 144 145 146</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1399,8 +1400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C4ADC8-1CA3-5646-8A52-7286C98257E4}">
   <dimension ref="A1:G246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="E155" sqref="E155"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="J148" sqref="J148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1448,7 +1449,7 @@
         <v>9</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1471,7 +1472,7 @@
         <v>11</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1494,7 +1495,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1517,7 +1518,7 @@
         <v>15</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1540,7 +1541,7 @@
         <v>17</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1563,7 +1564,7 @@
         <v>13</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1586,7 +1587,7 @@
         <v>13</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1609,7 +1610,7 @@
         <v>13</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1632,7 +1633,7 @@
         <v>22</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1655,7 +1656,7 @@
         <v>24</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1678,7 +1679,7 @@
         <v>13</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1701,7 +1702,7 @@
         <v>27</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1724,7 +1725,7 @@
         <v>29</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1747,7 +1748,7 @@
         <v>13</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1770,7 +1771,7 @@
         <v>16</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1827,7 +1828,7 @@
         <v>36</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1850,7 +1851,7 @@
         <v>37</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1873,7 +1874,7 @@
         <v>39</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1896,7 +1897,7 @@
         <v>39</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1919,7 +1920,7 @@
         <v>39</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1942,7 +1943,7 @@
         <v>39</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1965,7 +1966,7 @@
         <v>41</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2005,7 +2006,7 @@
         <v>44</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2028,7 +2029,7 @@
         <v>45</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2051,7 +2052,7 @@
         <v>46</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2074,7 +2075,7 @@
         <v>46</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2097,7 +2098,7 @@
         <v>46</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2120,7 +2121,7 @@
         <v>47</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2143,7 +2144,7 @@
         <v>48</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2166,7 +2167,7 @@
         <v>50</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2189,7 +2190,7 @@
         <v>53</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2212,7 +2213,7 @@
         <v>54</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2235,7 +2236,7 @@
         <v>55</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2258,7 +2259,7 @@
         <v>56</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2281,7 +2282,7 @@
         <v>57</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2304,7 +2305,7 @@
         <v>58</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2327,7 +2328,7 @@
         <v>59</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2350,7 +2351,7 @@
         <v>61</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2373,7 +2374,7 @@
         <v>63</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2396,7 +2397,7 @@
         <v>64</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2419,7 +2420,7 @@
         <v>65</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2442,7 +2443,7 @@
         <v>66</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2465,7 +2466,7 @@
         <v>67</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2488,7 +2489,7 @@
         <v>68</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2511,7 +2512,7 @@
         <v>45</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2534,7 +2535,7 @@
         <v>69</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2809,7 +2810,7 @@
         <v>84</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2832,7 +2833,7 @@
         <v>85</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2974,7 +2975,7 @@
         <v>94</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2997,7 +2998,7 @@
         <v>95</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3020,7 +3021,7 @@
         <v>96</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3043,7 +3044,7 @@
         <v>97</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3066,7 +3067,7 @@
         <v>98</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3089,7 +3090,7 @@
         <v>96</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3112,7 +3113,7 @@
         <v>96</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3135,7 +3136,7 @@
         <v>96</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3158,7 +3159,7 @@
         <v>100</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3215,7 +3216,7 @@
         <v>104</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3238,7 +3239,7 @@
         <v>84</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3261,7 +3262,7 @@
         <v>105</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3284,7 +3285,7 @@
         <v>106</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3307,7 +3308,7 @@
         <v>107</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3330,7 +3331,7 @@
         <v>108</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3353,7 +3354,7 @@
         <v>110</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3376,7 +3377,7 @@
         <v>112</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3399,7 +3400,7 @@
         <v>113</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -3422,7 +3423,7 @@
         <v>114</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3445,7 +3446,7 @@
         <v>115</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3468,7 +3469,7 @@
         <v>116</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -3643,7 +3644,7 @@
         <v>127</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -3666,7 +3667,7 @@
         <v>128</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -3689,7 +3690,7 @@
         <v>104</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -3712,7 +3713,7 @@
         <v>129</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -3783,7 +3784,7 @@
         <v>134</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -3806,7 +3807,7 @@
         <v>135</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3829,7 +3830,7 @@
         <v>111</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3852,7 +3853,7 @@
         <v>111</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3875,7 +3876,7 @@
         <v>111</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3898,7 +3899,7 @@
         <v>111</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3912,7 +3913,7 @@
         <v>133</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E117" s="4">
         <v>1</v>
@@ -3921,7 +3922,7 @@
         <v>136</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3944,7 +3945,7 @@
         <v>138</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3967,7 +3968,7 @@
         <v>139</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3990,7 +3991,7 @@
         <v>118</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -4013,7 +4014,7 @@
         <v>118</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -4036,7 +4037,7 @@
         <v>118</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4142,7 +4143,7 @@
         <v>146</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -4165,7 +4166,7 @@
         <v>148</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -4188,7 +4189,7 @@
         <v>148</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -4211,7 +4212,7 @@
         <v>148</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -4234,7 +4235,7 @@
         <v>149</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -4257,7 +4258,7 @@
         <v>150</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -4280,7 +4281,7 @@
         <v>148</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -4303,7 +4304,7 @@
         <v>148</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -4326,7 +4327,7 @@
         <v>151</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -4379,10 +4380,10 @@
         <v>1</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>156</v>
+        <v>304</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -4402,10 +4403,10 @@
         <v>1</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -4425,10 +4426,10 @@
         <v>1</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -4448,10 +4449,10 @@
         <v>1</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -4471,10 +4472,10 @@
         <v>1</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -4494,10 +4495,10 @@
         <v>1</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -4517,10 +4518,10 @@
         <v>1</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -4540,10 +4541,10 @@
         <v>1</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -4563,10 +4564,10 @@
         <v>1</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -4586,10 +4587,10 @@
         <v>1</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -4605,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G149" s="4"/>
     </row>
@@ -4622,7 +4623,7 @@
         <v>0</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G150" s="4"/>
     </row>
@@ -4637,16 +4638,16 @@
         <v>154</v>
       </c>
       <c r="D151" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E151" s="4">
+        <v>1</v>
+      </c>
+      <c r="F151" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="E151" s="4">
-        <v>1</v>
-      </c>
-      <c r="F151" s="4" t="s">
-        <v>166</v>
-      </c>
       <c r="G151" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -4666,10 +4667,10 @@
         <v>1</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -4685,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -4705,10 +4706,10 @@
         <v>1</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -4719,19 +4720,19 @@
         <v>126.998591</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E155" s="4">
         <v>1</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -4742,7 +4743,7 @@
         <v>126.998588</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D156" s="4" t="s">
         <v>10</v>
@@ -4751,10 +4752,10 @@
         <v>1</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -4765,7 +4766,7 @@
         <v>126.998588</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D157" s="4" t="s">
         <v>12</v>
@@ -4774,10 +4775,10 @@
         <v>1</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4788,7 +4789,7 @@
         <v>126.998588</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D158" s="4" t="s">
         <v>16</v>
@@ -4797,10 +4798,10 @@
         <v>1</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4811,7 +4812,7 @@
         <v>126.998588</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D159" s="4" t="s">
         <v>18</v>
@@ -4820,10 +4821,10 @@
         <v>1</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4834,7 +4835,7 @@
         <v>126.998588</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D160" s="4" t="s">
         <v>19</v>
@@ -4843,10 +4844,10 @@
         <v>1</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4857,7 +4858,7 @@
         <v>126.998588</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D161" s="4" t="s">
         <v>20</v>
@@ -4866,10 +4867,10 @@
         <v>1</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4880,19 +4881,19 @@
         <v>126.998531</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E162" s="4">
         <v>1</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4903,19 +4904,19 @@
         <v>126.998464</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D163" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E163" s="4">
+        <v>1</v>
+      </c>
+      <c r="F163" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="E163" s="4">
-        <v>1</v>
-      </c>
-      <c r="F163" s="4" t="s">
-        <v>175</v>
-      </c>
       <c r="G163" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4926,7 +4927,7 @@
         <v>126.99844899999999</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D164" s="4" t="s">
         <v>14</v>
@@ -4935,10 +4936,10 @@
         <v>1</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4949,7 +4950,7 @@
         <v>126.99847800000001</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D165" s="4" t="s">
         <v>60</v>
@@ -4958,10 +4959,10 @@
         <v>1</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4972,7 +4973,7 @@
         <v>126.998328</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D166" s="4" t="s">
         <v>10</v>
@@ -4981,10 +4982,10 @@
         <v>1</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4995,7 +4996,7 @@
         <v>126.998328</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D167" s="4" t="s">
         <v>12</v>
@@ -5004,10 +5005,10 @@
         <v>1</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -5018,7 +5019,7 @@
         <v>126.998328</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D168" s="4" t="s">
         <v>16</v>
@@ -5027,10 +5028,10 @@
         <v>1</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -5046,7 +5047,7 @@
         <v>0</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G169" s="4"/>
     </row>
@@ -5063,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G170" s="4"/>
     </row>
@@ -5080,7 +5081,7 @@
         <v>0</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G171" s="4"/>
     </row>
@@ -5097,7 +5098,7 @@
         <v>0</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G172" s="4"/>
     </row>
@@ -5114,7 +5115,7 @@
         <v>0</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -5130,7 +5131,7 @@
         <v>0</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G174" s="4"/>
     </row>
@@ -5147,7 +5148,7 @@
         <v>0</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G175" s="4"/>
     </row>
@@ -5159,14 +5160,14 @@
         <v>126.999785</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D176" s="4"/>
       <c r="E176" s="4">
         <v>0</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G176" s="4"/>
     </row>
@@ -5183,7 +5184,7 @@
         <v>0</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G177" s="4"/>
     </row>
@@ -5200,7 +5201,7 @@
         <v>0</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G178" s="4"/>
     </row>
@@ -5212,7 +5213,7 @@
         <v>126.999437</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D179" s="4" t="s">
         <v>8</v>
@@ -5221,10 +5222,10 @@
         <v>1</v>
       </c>
       <c r="F179" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -5235,7 +5236,7 @@
         <v>126.999488</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D180" s="4" t="s">
         <v>10</v>
@@ -5244,10 +5245,10 @@
         <v>1</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -5258,7 +5259,7 @@
         <v>126.999488</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D181" s="4" t="s">
         <v>12</v>
@@ -5267,10 +5268,10 @@
         <v>1</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -5281,7 +5282,7 @@
         <v>126.999488</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D182" s="4" t="s">
         <v>16</v>
@@ -5290,10 +5291,10 @@
         <v>1</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -5304,7 +5305,7 @@
         <v>126.999488</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D183" s="4" t="s">
         <v>18</v>
@@ -5313,10 +5314,10 @@
         <v>1</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -5327,7 +5328,7 @@
         <v>126.999788</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D184" s="4" t="s">
         <v>14</v>
@@ -5336,10 +5337,10 @@
         <v>1</v>
       </c>
       <c r="F184" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -5355,7 +5356,7 @@
         <v>0</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -5371,7 +5372,7 @@
         <v>0</v>
       </c>
       <c r="F186" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -5382,19 +5383,19 @@
         <v>127.000034</v>
       </c>
       <c r="C187" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="E187" s="4">
+        <v>1</v>
+      </c>
+      <c r="F187" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D187" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="E187" s="4">
-        <v>1</v>
-      </c>
-      <c r="F187" s="4" t="s">
-        <v>200</v>
-      </c>
       <c r="G187" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -5405,7 +5406,7 @@
         <v>127.000277</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D188" s="4" t="s">
         <v>10</v>
@@ -5414,10 +5415,10 @@
         <v>1</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -5428,7 +5429,7 @@
         <v>127.000277</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D189" s="4" t="s">
         <v>12</v>
@@ -5440,7 +5441,7 @@
         <v>187</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -5451,7 +5452,7 @@
         <v>127.000277</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D190" s="4" t="s">
         <v>16</v>
@@ -5463,7 +5464,7 @@
         <v>187</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -5479,7 +5480,7 @@
         <v>0</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G191" s="4"/>
     </row>
@@ -5496,7 +5497,7 @@
         <v>0</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -5512,7 +5513,7 @@
         <v>0</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G193" s="4"/>
     </row>
@@ -5524,7 +5525,7 @@
         <v>126.999751</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D194" s="4" t="s">
         <v>8</v>
@@ -5533,10 +5534,10 @@
         <v>1</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G194" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -5552,7 +5553,7 @@
         <v>0</v>
       </c>
       <c r="F195" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G195" s="4"/>
     </row>
@@ -5569,7 +5570,7 @@
         <v>0</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G196" s="4"/>
     </row>
@@ -5586,7 +5587,7 @@
         <v>0</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G197" s="4"/>
     </row>
@@ -5603,7 +5604,7 @@
         <v>0</v>
       </c>
       <c r="F198" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G198" s="4"/>
     </row>
@@ -5615,14 +5616,14 @@
         <v>126.999386</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D199" s="4"/>
       <c r="E199" s="4">
         <v>0</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G199" s="4"/>
     </row>
@@ -5639,7 +5640,7 @@
         <v>0</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G200" s="4"/>
     </row>
@@ -5656,7 +5657,7 @@
         <v>0</v>
       </c>
       <c r="F201" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G201" s="4"/>
     </row>
@@ -5673,7 +5674,7 @@
         <v>0</v>
       </c>
       <c r="F202" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G202" s="4"/>
     </row>
@@ -5690,7 +5691,7 @@
         <v>0</v>
       </c>
       <c r="F203" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G203" s="4"/>
     </row>
@@ -5707,7 +5708,7 @@
         <v>0</v>
       </c>
       <c r="F204" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G204" s="4"/>
     </row>
@@ -5724,7 +5725,7 @@
         <v>0</v>
       </c>
       <c r="F205" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G205" s="4"/>
     </row>
@@ -5741,7 +5742,7 @@
         <v>0</v>
       </c>
       <c r="F206" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G206" s="4"/>
     </row>
@@ -5753,10 +5754,10 @@
         <v>126.99556</v>
       </c>
       <c r="C207" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D207" s="4" t="s">
         <v>220</v>
-      </c>
-      <c r="D207" s="4" t="s">
-        <v>221</v>
       </c>
       <c r="E207" s="4">
         <v>1</v>
@@ -5765,7 +5766,7 @@
         <v>205</v>
       </c>
       <c r="G207" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -5781,7 +5782,7 @@
         <v>0</v>
       </c>
       <c r="F208" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G208" s="4"/>
     </row>
@@ -5798,7 +5799,7 @@
         <v>0</v>
       </c>
       <c r="F209" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G209" s="4"/>
     </row>
@@ -5815,7 +5816,7 @@
         <v>0</v>
       </c>
       <c r="F210" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G210" s="4"/>
     </row>
@@ -5832,7 +5833,7 @@
         <v>0</v>
       </c>
       <c r="F211" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G211" s="4"/>
     </row>
@@ -5849,7 +5850,7 @@
         <v>0</v>
       </c>
       <c r="F212" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G212" s="4"/>
     </row>
@@ -5866,7 +5867,7 @@
         <v>0</v>
       </c>
       <c r="F213" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G213" s="4"/>
     </row>
@@ -5883,7 +5884,7 @@
         <v>0</v>
       </c>
       <c r="F214" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G214" s="4"/>
     </row>
@@ -5900,7 +5901,7 @@
         <v>0</v>
       </c>
       <c r="F215" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G215" s="4"/>
     </row>
@@ -5917,7 +5918,7 @@
         <v>0</v>
       </c>
       <c r="F216" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G216" s="4"/>
     </row>
@@ -5934,7 +5935,7 @@
         <v>0</v>
       </c>
       <c r="F217" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G217" s="4"/>
     </row>
@@ -5951,7 +5952,7 @@
         <v>0</v>
       </c>
       <c r="F218" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G218" s="4"/>
     </row>
@@ -5968,7 +5969,7 @@
         <v>0</v>
       </c>
       <c r="F219" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G219" s="4"/>
     </row>
@@ -5985,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F220" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G220" s="4"/>
     </row>
@@ -6002,7 +6003,7 @@
         <v>0</v>
       </c>
       <c r="F221" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G221" s="4"/>
     </row>
@@ -6019,7 +6020,7 @@
         <v>0</v>
       </c>
       <c r="F222" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G222" s="4"/>
     </row>
@@ -6036,7 +6037,7 @@
         <v>0</v>
       </c>
       <c r="F223" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G223" s="4"/>
     </row>
@@ -6053,7 +6054,7 @@
         <v>0</v>
       </c>
       <c r="F224" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G224" s="4"/>
     </row>
@@ -6070,7 +6071,7 @@
         <v>0</v>
       </c>
       <c r="F225" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G225" s="4"/>
     </row>
@@ -6082,19 +6083,19 @@
         <v>126.998277</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E226" s="4">
         <v>1</v>
       </c>
       <c r="F226" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G226" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -6105,19 +6106,19 @@
         <v>126.999844</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E227" s="4">
         <v>1</v>
       </c>
       <c r="F227" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G227" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -6133,7 +6134,7 @@
         <v>0</v>
       </c>
       <c r="F228" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G228" s="4"/>
     </row>
@@ -6145,19 +6146,19 @@
         <v>126.99946199999999</v>
       </c>
       <c r="C229" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D229" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D229" s="4" t="s">
+      <c r="E229" s="4">
+        <v>1</v>
+      </c>
+      <c r="F229" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="E229" s="4">
-        <v>1</v>
-      </c>
-      <c r="F229" s="4" t="s">
-        <v>245</v>
-      </c>
       <c r="G229" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -6168,7 +6169,7 @@
         <v>126.999593</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D230" s="4" t="s">
         <v>10</v>
@@ -6180,7 +6181,7 @@
         <v>228</v>
       </c>
       <c r="G230" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -6191,7 +6192,7 @@
         <v>126.999593</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D231" s="4" t="s">
         <v>12</v>
@@ -6203,7 +6204,7 @@
         <v>228</v>
       </c>
       <c r="G231" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -6214,7 +6215,7 @@
         <v>126.999593</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D232" s="4" t="s">
         <v>16</v>
@@ -6226,7 +6227,7 @@
         <v>228</v>
       </c>
       <c r="G232" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -6240,16 +6241,16 @@
         <v>43</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E233" s="4">
         <v>1</v>
       </c>
       <c r="F233" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G233" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -6263,16 +6264,16 @@
         <v>43</v>
       </c>
       <c r="D234" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E234" s="4">
+        <v>1</v>
+      </c>
+      <c r="F234" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="E234" s="4">
-        <v>1</v>
-      </c>
-      <c r="F234" s="4" t="s">
-        <v>248</v>
-      </c>
       <c r="G234" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -6286,16 +6287,16 @@
         <v>35</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E235" s="4">
         <v>1</v>
       </c>
       <c r="F235" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G235" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -6311,7 +6312,7 @@
         <v>0</v>
       </c>
       <c r="F236" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G236" s="4"/>
     </row>
@@ -6328,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="F237" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G237" s="4"/>
     </row>
@@ -6345,7 +6346,7 @@
         <v>0</v>
       </c>
       <c r="F238" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G238" s="4"/>
     </row>
@@ -6362,7 +6363,7 @@
         <v>0</v>
       </c>
       <c r="F239" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G239" s="4"/>
     </row>
@@ -6379,7 +6380,7 @@
         <v>0</v>
       </c>
       <c r="F240" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G240" s="4"/>
     </row>
@@ -6391,7 +6392,7 @@
         <v>126.999813</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D241" s="4" t="s">
         <v>40</v>
@@ -6400,10 +6401,10 @@
         <v>1</v>
       </c>
       <c r="F241" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G241" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -6414,7 +6415,7 @@
         <v>126.999813</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D242" s="4" t="s">
         <v>10</v>
@@ -6423,10 +6424,10 @@
         <v>1</v>
       </c>
       <c r="F242" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G242" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -6437,7 +6438,7 @@
         <v>126.999813</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D243" s="4" t="s">
         <v>12</v>
@@ -6446,10 +6447,10 @@
         <v>1</v>
       </c>
       <c r="F243" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G243" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -6460,7 +6461,7 @@
         <v>126.999813</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D244" s="4" t="s">
         <v>16</v>
@@ -6469,10 +6470,10 @@
         <v>1</v>
       </c>
       <c r="F244" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G244" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -6483,7 +6484,7 @@
         <v>126.999813</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D245" s="4" t="s">
         <v>18</v>
@@ -6492,10 +6493,10 @@
         <v>1</v>
       </c>
       <c r="F245" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G245" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -6506,7 +6507,7 @@
         <v>126.999813</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D246" s="4" t="s">
         <v>19</v>
@@ -6515,10 +6516,10 @@
         <v>1</v>
       </c>
       <c r="F246" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G246" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
